--- a/pass 7/end_pass7.xlsx
+++ b/pass 7/end_pass7.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\pass 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28689269-C632-4D70-BBFC-026922F8629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA5342CC-18A8-47A7-B127-D1945914BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0140A549-1D5D-424B-8F99-8895DB6868C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6EB56B6D-4D1F-40C5-9C29-1ECF5DA95FEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-06-26" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-06-27" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
@@ -89,107 +89,110 @@
     <t>Tsú</t>
   </si>
   <si>
+    <t>MäD</t>
+  </si>
+  <si>
     <t>Aorus Main</t>
   </si>
   <si>
-    <t>MäD</t>
+    <t>Tom Bin</t>
+  </si>
+  <si>
+    <t>Pigge</t>
+  </si>
+  <si>
+    <t>K1ngk3v I</t>
+  </si>
+  <si>
+    <t>ElKappa</t>
+  </si>
+  <si>
+    <t>ManhAnMy88</t>
+  </si>
+  <si>
+    <t>ᴮᴮメBoZkurTメ</t>
+  </si>
+  <si>
+    <t>ﾒ l b0m0</t>
+  </si>
+  <si>
+    <t>十 ALUCARD 十</t>
+  </si>
+  <si>
+    <t>ᴾnoidᶜᵒʷ</t>
+  </si>
+  <si>
+    <t>ᴺᶻ Nemeziz</t>
+  </si>
+  <si>
+    <t>火Akaza乂</t>
+  </si>
+  <si>
+    <t>Onkel Donald</t>
+  </si>
+  <si>
+    <t>Ove HK</t>
+  </si>
+  <si>
+    <t>Money4joker</t>
+  </si>
+  <si>
+    <t>ᶜᵏKJM81</t>
+  </si>
+  <si>
+    <t>ᴸᴵᴷᴱ MD</t>
   </si>
   <si>
     <t xml:space="preserve">(WINs]WINs-UNITED WE WIN
 </t>
   </si>
   <si>
-    <t>Tom Bin</t>
-  </si>
-  <si>
-    <t>ElKappa</t>
-  </si>
-  <si>
-    <t>ᴮᴮメBoZkurTメ</t>
-  </si>
-  <si>
-    <t>K1ngk3v I</t>
-  </si>
-  <si>
-    <t>Pigge</t>
-  </si>
-  <si>
-    <t>ﾒ l b0m0</t>
-  </si>
-  <si>
-    <t>ManhAnMy88</t>
-  </si>
-  <si>
-    <t>ᴾnoidᶜᵒʷ</t>
-  </si>
-  <si>
-    <t>ᴺᶻ Nemeziz</t>
-  </si>
-  <si>
-    <t>火Akaza乂</t>
-  </si>
-  <si>
-    <t>Ove HK</t>
-  </si>
-  <si>
-    <t>十 ALUCARD 十</t>
-  </si>
-  <si>
-    <t>Onkel Donald</t>
-  </si>
-  <si>
-    <t>Money4joker</t>
-  </si>
-  <si>
-    <t>ᴸᴵᴷᴱ MD</t>
-  </si>
-  <si>
     <t>FreeByrd</t>
   </si>
   <si>
-    <t>ᶜᵏKJM81</t>
+    <t>乂TENNO乂</t>
+  </si>
+  <si>
+    <t>Ɓo乄</t>
+  </si>
+  <si>
+    <t>SNØW BÄll</t>
+  </si>
+  <si>
+    <t>ᴰᴹMightyACE</t>
   </si>
   <si>
     <t>Johan Swe</t>
   </si>
   <si>
-    <t>乂TENNO乂</t>
-  </si>
-  <si>
-    <t>SNØW BÄll</t>
-  </si>
-  <si>
-    <t>ᴰᴹMightyACE</t>
-  </si>
-  <si>
-    <t>Ɓo乄</t>
+    <t>Duboish</t>
+  </si>
+  <si>
+    <t>Wōđinaz</t>
+  </si>
+  <si>
+    <t>CrazyBeauty</t>
   </si>
   <si>
     <t>ᶜᵏSamuraii</t>
   </si>
   <si>
-    <t>Wōđinaz</t>
-  </si>
-  <si>
-    <t>CrazyBeauty</t>
+    <t>FONZY</t>
+  </si>
+  <si>
+    <t>YourFatHubby</t>
+  </si>
+  <si>
+    <t>Daìsy</t>
+  </si>
+  <si>
+    <t>Lvl9Sushi</t>
+  </si>
+  <si>
+    <t>Zeuspromax</t>
   </si>
   <si>
     <t>ﾒ l Mike</t>
-  </si>
-  <si>
-    <t>Duboish</t>
-  </si>
-  <si>
-    <t>FONZY</t>
-  </si>
-  <si>
-    <t>YourFatHubby</t>
-  </si>
-  <si>
-    <t>Daìsy</t>
-  </si>
-  <si>
-    <t>Lvl9Sushi</t>
   </si>
   <si>
     <t>ﾒ l Ritchie</t>
@@ -199,15 +202,15 @@
 </t>
   </si>
   <si>
-    <t>Zeuspromax</t>
-  </si>
-  <si>
     <t>FenjaOfSweden</t>
   </si>
   <si>
     <t>Mighty Tanjiro</t>
   </si>
   <si>
+    <t>ᶜᵏ Gannicus</t>
+  </si>
+  <si>
     <t>1L7N</t>
   </si>
   <si>
@@ -224,9 +227,6 @@
   </si>
   <si>
     <t>Orenji No Neko</t>
-  </si>
-  <si>
-    <t>ᶜᵏ Gannicus</t>
   </si>
   <si>
     <t>ᶜᵏCoLi FaRm</t>
@@ -291,10 +291,10 @@
     <t>TsuFarm7</t>
   </si>
   <si>
+    <t>Atlas mini2</t>
+  </si>
+  <si>
     <t>Money4joker2</t>
-  </si>
-  <si>
-    <t>Atlas mini2</t>
   </si>
   <si>
     <t>DreamzZy</t>
@@ -359,10 +359,10 @@
     <t>bozkurdfar</t>
   </si>
   <si>
+    <t>Zeuspro</t>
+  </si>
+  <si>
     <t>TsuFarm9</t>
-  </si>
-  <si>
-    <t>Zeuspro</t>
   </si>
   <si>
     <t>GDragon INDRA</t>
@@ -381,6 +381,10 @@
     <t>Bad DreamzZ</t>
   </si>
   <si>
+    <t xml:space="preserve">[DM#2]Mighty Farmer #2
+</t>
+  </si>
+  <si>
     <t>K乂M ﾐ Farm 3</t>
   </si>
   <si>
@@ -508,10 +512,6 @@
     <t>KD Bank62</t>
   </si>
   <si>
-    <t xml:space="preserve">[DM#2]Mighty Farmer #2
-</t>
-  </si>
-  <si>
     <t>Viserys消除2</t>
   </si>
   <si>
@@ -777,9 +777,6 @@
     <t>holasoyjuan22</t>
   </si>
   <si>
-    <t>Ɓo乄 F4 GO</t>
-  </si>
-  <si>
     <t>Kraieski</t>
   </si>
   <si>
@@ -787,6 +784,9 @@
 </t>
   </si>
   <si>
+    <t>Ɓo乄 F4 GO</t>
+  </si>
+  <si>
     <t>Danthemanzzzz</t>
   </si>
   <si>
@@ -840,13 +840,13 @@
     <t>Gobernador197983578</t>
   </si>
   <si>
+    <t>Governador100192170</t>
+  </si>
+  <si>
     <t>Gobernador164638687</t>
   </si>
   <si>
     <t>Gobernador197982730</t>
-  </si>
-  <si>
-    <t>Governador100192170</t>
   </si>
   <si>
     <t>ghostbr30</t>
@@ -1263,13 +1263,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E4B037-32D0-4D5D-A013-8FFCA4218D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999BBF18-8B04-4938-A882-13D85B0EE17E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1331,10 +1333,10 @@
         <v>45440625</v>
       </c>
       <c r="C2" s="2">
-        <v>104853701</v>
+        <v>107487539</v>
       </c>
       <c r="D2" s="2">
-        <v>9572068645</v>
+        <v>9588936115</v>
       </c>
       <c r="E2" s="2">
         <v>25819407</v>
@@ -1349,16 +1351,16 @@
         <v>1239402</v>
       </c>
       <c r="I2" s="2">
-        <v>171228690</v>
+        <v>171349005</v>
       </c>
       <c r="J2" s="2">
-        <v>392429960</v>
+        <v>393213176</v>
       </c>
       <c r="K2" s="2">
         <v>3351638617</v>
       </c>
       <c r="L2" s="2">
-        <v>29434</v>
+        <v>89477</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>17</v>
@@ -1381,34 +1383,34 @@
         <v>38708637</v>
       </c>
       <c r="C3" s="2">
-        <v>92249377</v>
+        <v>92844157</v>
       </c>
       <c r="D3" s="2">
-        <v>7481109099</v>
+        <v>7492015247</v>
       </c>
       <c r="E3" s="2">
-        <v>24808212</v>
+        <v>24877327</v>
       </c>
       <c r="F3" s="2">
         <v>93477329</v>
       </c>
       <c r="G3" s="2">
-        <v>2133505</v>
+        <v>2133829</v>
       </c>
       <c r="H3" s="2">
         <v>1879536</v>
       </c>
       <c r="I3" s="2">
-        <v>155380978</v>
+        <v>155494136</v>
       </c>
       <c r="J3" s="2">
-        <v>294840935</v>
+        <v>295329631</v>
       </c>
       <c r="K3" s="2">
         <v>13909675341</v>
       </c>
       <c r="L3" s="2">
-        <v>127655</v>
+        <v>127700</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>17</v>
@@ -1431,7 +1433,7 @@
         <v>49041000</v>
       </c>
       <c r="C4" s="2">
-        <v>90807682</v>
+        <v>90855682</v>
       </c>
       <c r="D4" s="2">
         <v>4066626394</v>
@@ -1458,7 +1460,7 @@
         <v>40867505926</v>
       </c>
       <c r="L4" s="2">
-        <v>75563</v>
+        <v>75569</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>17</v>
@@ -1481,16 +1483,16 @@
         <v>59658597</v>
       </c>
       <c r="C5" s="2">
-        <v>88996501</v>
+        <v>90228021</v>
       </c>
       <c r="D5" s="2">
-        <v>5611525543</v>
+        <v>5616715523</v>
       </c>
       <c r="E5" s="2">
-        <v>27781721</v>
+        <v>27810053</v>
       </c>
       <c r="F5" s="2">
-        <v>47461097</v>
+        <v>47461098</v>
       </c>
       <c r="G5" s="2">
         <v>2622618</v>
@@ -1499,16 +1501,16 @@
         <v>2517422</v>
       </c>
       <c r="I5" s="2">
-        <v>129674858</v>
+        <v>129768220</v>
       </c>
       <c r="J5" s="2">
-        <v>214498491</v>
+        <v>214711309</v>
       </c>
       <c r="K5" s="2">
         <v>1671072258</v>
       </c>
       <c r="L5" s="2">
-        <v>199093</v>
+        <v>199199</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>17</v>
@@ -1531,13 +1533,13 @@
         <v>2036382</v>
       </c>
       <c r="C6" s="2">
-        <v>87162513</v>
+        <v>87264359</v>
       </c>
       <c r="D6" s="2">
         <v>10385013344</v>
       </c>
       <c r="E6" s="2">
-        <v>293237790</v>
+        <v>29323779</v>
       </c>
       <c r="F6" s="2">
         <v>142297463</v>
@@ -1558,7 +1560,7 @@
         <v>27051348859</v>
       </c>
       <c r="L6" s="2">
-        <v>187951</v>
+        <v>188043</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>17</v>
@@ -1572,49 +1574,49 @@
         <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>73021280</v>
+        <v>70446861</v>
       </c>
       <c r="C7" s="2">
-        <v>85846835</v>
+        <v>87426930</v>
       </c>
       <c r="D7" s="2">
-        <v>3926168586</v>
+        <v>1971071967</v>
       </c>
       <c r="E7" s="2">
-        <v>17152297</v>
+        <v>20219806</v>
       </c>
       <c r="F7" s="2">
-        <v>90781962</v>
+        <v>94125825</v>
       </c>
       <c r="G7" s="2">
-        <v>5202348</v>
+        <v>492306</v>
       </c>
       <c r="H7" s="2">
-        <v>8127112</v>
+        <v>649020</v>
       </c>
       <c r="I7" s="2">
-        <v>143163061</v>
+        <v>55647639</v>
       </c>
       <c r="J7" s="2">
-        <v>121673422</v>
+        <v>69609486</v>
       </c>
       <c r="K7" s="2">
-        <v>60115533754</v>
+        <v>7881462478</v>
       </c>
       <c r="L7" s="2">
-        <v>140029</v>
+        <v>128949</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="2">
-        <v>31217233</v>
+        <v>15230974</v>
       </c>
       <c r="O7" s="2">
-        <v>1494998</v>
+        <v>2388637</v>
       </c>
       <c r="P7" s="2">
-        <v>14472563</v>
+        <v>13258921</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1622,63 +1624,63 @@
         <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>70446861</v>
+        <v>73021280</v>
       </c>
       <c r="C8" s="2">
-        <v>85266371</v>
+        <v>85846835</v>
       </c>
       <c r="D8" s="2">
-        <v>1966015677</v>
+        <v>3926168586</v>
       </c>
       <c r="E8" s="2">
-        <v>20104709</v>
+        <v>17152297</v>
       </c>
       <c r="F8" s="2">
-        <v>94125825</v>
+        <v>90781962</v>
       </c>
       <c r="G8" s="2">
-        <v>492306</v>
+        <v>5202348</v>
       </c>
       <c r="H8" s="2">
-        <v>649020</v>
+        <v>8127112</v>
       </c>
       <c r="I8" s="2">
-        <v>55590882</v>
+        <v>143163061</v>
       </c>
       <c r="J8" s="2">
-        <v>69385050</v>
+        <v>121673422</v>
       </c>
       <c r="K8" s="2">
-        <v>7881462478</v>
+        <v>60115533754</v>
       </c>
       <c r="L8" s="2">
-        <v>128794</v>
+        <v>140035</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N8" s="2">
-        <v>15230974</v>
+        <v>31217233</v>
       </c>
       <c r="O8" s="2">
-        <v>2388637</v>
+        <v>1494998</v>
       </c>
       <c r="P8" s="2">
-        <v>13258921</v>
+        <v>14472563</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>89003413</v>
       </c>
       <c r="C9" s="2">
-        <v>84097737</v>
+        <v>85565985</v>
       </c>
       <c r="D9" s="2">
-        <v>4484016972</v>
+        <v>4484017912</v>
       </c>
       <c r="E9" s="2">
         <v>23645149</v>
@@ -1696,13 +1698,13 @@
         <v>102224295</v>
       </c>
       <c r="J9" s="2">
-        <v>169479875</v>
+        <v>169479922</v>
       </c>
       <c r="K9" s="2">
-        <v>269375392735</v>
+        <v>271875392735</v>
       </c>
       <c r="L9" s="2">
-        <v>125911</v>
+        <v>125953</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>17</v>
@@ -1719,608 +1721,608 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>38767756</v>
+        <v>63832228</v>
       </c>
       <c r="C10" s="2">
-        <v>82753925</v>
+        <v>83476866</v>
       </c>
       <c r="D10" s="2">
-        <v>1927210304</v>
+        <v>8850750774</v>
       </c>
       <c r="E10" s="2">
-        <v>21140305</v>
+        <v>31047518</v>
       </c>
       <c r="F10" s="2">
-        <v>4209204</v>
+        <v>10737181</v>
       </c>
       <c r="G10" s="2">
-        <v>2127656</v>
+        <v>10033355</v>
       </c>
       <c r="H10" s="2">
-        <v>1727688</v>
+        <v>5108657</v>
       </c>
       <c r="I10" s="2">
-        <v>57810838</v>
+        <v>176121368</v>
       </c>
       <c r="J10" s="2">
-        <v>66854701</v>
+        <v>352344416</v>
       </c>
       <c r="K10" s="2">
-        <v>6500271507</v>
+        <v>21697064921</v>
       </c>
       <c r="L10" s="2">
-        <v>82403</v>
+        <v>350125</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="2">
-        <v>16773357</v>
+        <v>45310625</v>
       </c>
       <c r="O10" s="2">
-        <v>2219335</v>
+        <v>2980306</v>
       </c>
       <c r="P10" s="2">
-        <v>26153929</v>
+        <v>45327028</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
-        <v>142978261</v>
+        <v>57823214</v>
       </c>
       <c r="C11" s="2">
-        <v>82064257</v>
+        <v>82694572</v>
       </c>
       <c r="D11" s="2">
-        <v>940657165</v>
+        <v>8176461696</v>
       </c>
       <c r="E11" s="2">
-        <v>5616277</v>
+        <v>28702907</v>
       </c>
       <c r="F11" s="2">
-        <v>102253388</v>
+        <v>20016274</v>
       </c>
       <c r="G11" s="2">
-        <v>1551843</v>
+        <v>4095513</v>
       </c>
       <c r="H11" s="2">
-        <v>1011088</v>
+        <v>3810389</v>
       </c>
       <c r="I11" s="2">
-        <v>25247753</v>
+        <v>197148888</v>
       </c>
       <c r="J11" s="2">
-        <v>33029046</v>
+        <v>308876849</v>
       </c>
       <c r="K11" s="2">
-        <v>9890545066</v>
+        <v>14020389111</v>
       </c>
       <c r="L11" s="2">
-        <v>72712</v>
+        <v>306546</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="2">
-        <v>30962940</v>
+        <v>65763657</v>
       </c>
       <c r="O11" s="2">
-        <v>1205704</v>
+        <v>3612684</v>
       </c>
       <c r="P11" s="2">
-        <v>49731683</v>
+        <v>44907797</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>57823214</v>
+        <v>38767756</v>
       </c>
       <c r="C12" s="2">
-        <v>80987486</v>
+        <v>82393652</v>
       </c>
       <c r="D12" s="2">
-        <v>8163624246</v>
+        <v>1932720674</v>
       </c>
       <c r="E12" s="2">
-        <v>28702907</v>
+        <v>21140589</v>
       </c>
       <c r="F12" s="2">
-        <v>20016274</v>
+        <v>4209204</v>
       </c>
       <c r="G12" s="2">
-        <v>4095513</v>
+        <v>2127656</v>
       </c>
       <c r="H12" s="2">
-        <v>3810389</v>
+        <v>1727688</v>
       </c>
       <c r="I12" s="2">
-        <v>197084135</v>
+        <v>57820455</v>
       </c>
       <c r="J12" s="2">
-        <v>308267353</v>
+        <v>67125411</v>
       </c>
       <c r="K12" s="2">
-        <v>14020389111</v>
+        <v>6500271507</v>
       </c>
       <c r="L12" s="2">
-        <v>306383</v>
+        <v>92425</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="2">
-        <v>65763657</v>
+        <v>16773357</v>
       </c>
       <c r="O12" s="2">
-        <v>3612684</v>
+        <v>2219335</v>
       </c>
       <c r="P12" s="2">
-        <v>44907797</v>
+        <v>26153929</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>63832228</v>
+        <v>46268923</v>
       </c>
       <c r="C13" s="2">
-        <v>82983426</v>
+        <v>81128658</v>
       </c>
       <c r="D13" s="2">
-        <v>8830083689</v>
+        <v>4760832398</v>
       </c>
       <c r="E13" s="2">
-        <v>31047518</v>
+        <v>32821102</v>
       </c>
       <c r="F13" s="2">
-        <v>10737159</v>
+        <v>80084830</v>
       </c>
       <c r="G13" s="2">
-        <v>10033355</v>
+        <v>10991351</v>
       </c>
       <c r="H13" s="2">
-        <v>5108657</v>
+        <v>12601610</v>
       </c>
       <c r="I13" s="2">
-        <v>176121366</v>
+        <v>197889907</v>
       </c>
       <c r="J13" s="2">
-        <v>351311063</v>
+        <v>134676361</v>
       </c>
       <c r="K13" s="2">
-        <v>21697064921</v>
+        <v>87484800822</v>
       </c>
       <c r="L13" s="2">
-        <v>3249947</v>
+        <v>81959</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="2">
-        <v>45310625</v>
-      </c>
-      <c r="O13" s="2">
-        <v>2980306</v>
-      </c>
-      <c r="P13" s="2">
-        <v>45327028</v>
-      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
-        <v>45472524</v>
+        <v>142978261</v>
       </c>
       <c r="C14" s="2">
-        <v>79425842</v>
+        <v>81553827</v>
       </c>
       <c r="D14" s="2">
-        <v>1241843937</v>
+        <v>942870735</v>
       </c>
       <c r="E14" s="2">
-        <v>15331368</v>
+        <v>5616277</v>
       </c>
       <c r="F14" s="2">
-        <v>62693456</v>
+        <v>102253388</v>
       </c>
       <c r="G14" s="2">
-        <v>1038544</v>
+        <v>1551843</v>
       </c>
       <c r="H14" s="2">
-        <v>2555382</v>
+        <v>1011088</v>
       </c>
       <c r="I14" s="2">
-        <v>36364037</v>
+        <v>25248630</v>
       </c>
       <c r="J14" s="2">
-        <v>42668313</v>
+        <v>33139286</v>
       </c>
       <c r="K14" s="2">
-        <v>448732759</v>
+        <v>9890545066</v>
       </c>
       <c r="L14" s="2">
-        <v>82120</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>72764</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N14" s="2">
-        <v>12953560</v>
+        <v>30962940</v>
       </c>
       <c r="O14" s="2">
-        <v>1412007</v>
+        <v>1205704</v>
       </c>
       <c r="P14" s="2">
-        <v>18086947</v>
+        <v>49731683</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>46268923</v>
+        <v>45472524</v>
       </c>
       <c r="C15" s="2">
-        <v>78997405</v>
+        <v>79425842</v>
       </c>
       <c r="D15" s="2">
-        <v>4759142958</v>
+        <v>1241843937</v>
       </c>
       <c r="E15" s="2">
-        <v>32821102</v>
+        <v>15331368</v>
       </c>
       <c r="F15" s="2">
-        <v>80084830</v>
+        <v>62693456</v>
       </c>
       <c r="G15" s="2">
-        <v>10991351</v>
+        <v>1038544</v>
       </c>
       <c r="H15" s="2">
-        <v>12601610</v>
+        <v>2555382</v>
       </c>
       <c r="I15" s="2">
-        <v>197889907</v>
+        <v>36364037</v>
       </c>
       <c r="J15" s="2">
-        <v>134591889</v>
+        <v>42668313</v>
       </c>
       <c r="K15" s="2">
-        <v>87484800822</v>
+        <v>448732759</v>
       </c>
       <c r="L15" s="2">
-        <v>81931</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+        <v>82120</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>12953560</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1412007</v>
+      </c>
+      <c r="P15" s="2">
+        <v>18086947</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>93584462</v>
+        <v>111154401</v>
       </c>
       <c r="C16" s="2">
-        <v>78819572</v>
+        <v>78032151</v>
       </c>
       <c r="D16" s="2">
-        <v>5250002118</v>
+        <v>1957621245</v>
       </c>
       <c r="E16" s="2">
-        <v>26611981</v>
+        <v>13119967</v>
       </c>
       <c r="F16" s="2">
-        <v>10468300</v>
+        <v>75267455</v>
       </c>
       <c r="G16" s="2">
-        <v>4039431</v>
+        <v>2969993</v>
       </c>
       <c r="H16" s="2">
-        <v>4319884</v>
+        <v>2927172</v>
       </c>
       <c r="I16" s="2">
-        <v>119497132</v>
+        <v>43195122</v>
       </c>
       <c r="J16" s="2">
-        <v>201378937</v>
+        <v>74648393</v>
       </c>
       <c r="K16" s="2">
-        <v>21512409630</v>
+        <v>9793498330</v>
       </c>
       <c r="L16" s="2">
-        <v>139185</v>
+        <v>102922</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="2">
-        <v>76454903</v>
+        <v>30617796</v>
       </c>
       <c r="O16" s="2">
-        <v>2350601</v>
+        <v>2391604</v>
       </c>
       <c r="P16" s="2">
-        <v>29543418</v>
+        <v>27679566</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
-        <v>9393436</v>
+        <v>93584462</v>
       </c>
       <c r="C17" s="2">
-        <v>77753023</v>
+        <v>82327956</v>
       </c>
       <c r="D17" s="2">
-        <v>2130240528</v>
+        <v>5315747278</v>
       </c>
       <c r="E17" s="2">
-        <v>16636383</v>
+        <v>26611981</v>
       </c>
       <c r="F17" s="2">
-        <v>38763014</v>
+        <v>10468300</v>
       </c>
       <c r="G17" s="2">
-        <v>11157504</v>
+        <v>4039431</v>
       </c>
       <c r="H17" s="2">
-        <v>14904237</v>
+        <v>4319884</v>
       </c>
       <c r="I17" s="2">
-        <v>142446467</v>
+        <v>119967846</v>
       </c>
       <c r="J17" s="2">
-        <v>30804565</v>
+        <v>204430838</v>
       </c>
       <c r="K17" s="2">
-        <v>18362832703</v>
+        <v>21512409630</v>
       </c>
       <c r="L17" s="2">
-        <v>51510</v>
+        <v>139267</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>76454903</v>
       </c>
       <c r="O17" s="2">
-        <v>8381</v>
+        <v>2350601</v>
       </c>
       <c r="P17" s="2">
-        <v>23365</v>
+        <v>29543418</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>59146982</v>
+        <v>9393436</v>
       </c>
       <c r="C18" s="2">
-        <v>77336871</v>
+        <v>77753023</v>
       </c>
       <c r="D18" s="2">
-        <v>2974104655</v>
+        <v>2130240528</v>
       </c>
       <c r="E18" s="2">
-        <v>27024413</v>
+        <v>16636383</v>
       </c>
       <c r="F18" s="2">
-        <v>2157316</v>
+        <v>38763014</v>
       </c>
       <c r="G18" s="2">
-        <v>2166667</v>
+        <v>11157504</v>
       </c>
       <c r="H18" s="2">
-        <v>1105802</v>
+        <v>14904237</v>
       </c>
       <c r="I18" s="2">
-        <v>83397401</v>
+        <v>142446467</v>
       </c>
       <c r="J18" s="2">
-        <v>106547132</v>
+        <v>30804565</v>
       </c>
       <c r="K18" s="2">
-        <v>6189271378</v>
+        <v>18362832703</v>
       </c>
       <c r="L18" s="2">
-        <v>164721</v>
+        <v>51510</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="2">
-        <v>16909393</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>2791505</v>
+        <v>8381</v>
       </c>
       <c r="P18" s="2">
-        <v>19333482</v>
+        <v>23365</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>19760642</v>
+        <v>59146982</v>
       </c>
       <c r="C19" s="2">
-        <v>76981263</v>
+        <v>77442639</v>
       </c>
       <c r="D19" s="2">
-        <v>5132416797</v>
+        <v>2991277095</v>
       </c>
       <c r="E19" s="2">
-        <v>29025076</v>
+        <v>27024413</v>
       </c>
       <c r="F19" s="2">
-        <v>5831119</v>
+        <v>2157317</v>
       </c>
       <c r="G19" s="2">
-        <v>590301</v>
+        <v>2166667</v>
       </c>
       <c r="H19" s="2">
-        <v>807713</v>
+        <v>1105802</v>
       </c>
       <c r="I19" s="2">
-        <v>97992204</v>
+        <v>83554219</v>
       </c>
       <c r="J19" s="2">
-        <v>207345854</v>
+        <v>107327345</v>
       </c>
       <c r="K19" s="2">
-        <v>23146403429</v>
+        <v>6189271378</v>
       </c>
       <c r="L19" s="2">
-        <v>118290</v>
+        <v>164802</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N19" s="2">
-        <v>61739020</v>
+        <v>16909393</v>
       </c>
       <c r="O19" s="2">
-        <v>3763157</v>
+        <v>2791505</v>
       </c>
       <c r="P19" s="2">
-        <v>50286348</v>
+        <v>19333482</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
-        <v>111154401</v>
+        <v>136635217</v>
       </c>
       <c r="C20" s="2">
-        <v>78214721</v>
+        <v>77112332</v>
       </c>
       <c r="D20" s="2">
-        <v>1955960845</v>
+        <v>2124523230</v>
       </c>
       <c r="E20" s="2">
-        <v>13119967</v>
+        <v>14595104</v>
       </c>
       <c r="F20" s="2">
-        <v>75267455</v>
+        <v>15948223</v>
       </c>
       <c r="G20" s="2">
-        <v>2969993</v>
+        <v>1780888</v>
       </c>
       <c r="H20" s="2">
-        <v>2927172</v>
+        <v>2058410</v>
       </c>
       <c r="I20" s="2">
-        <v>43191704</v>
+        <v>78277271</v>
       </c>
       <c r="J20" s="2">
-        <v>74567082</v>
+        <v>66338273</v>
       </c>
       <c r="K20" s="2">
-        <v>9683498330</v>
+        <v>11495215342</v>
       </c>
       <c r="L20" s="2">
-        <v>102822</v>
+        <v>54926</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N20" s="2">
-        <v>30617796</v>
+        <v>25896964</v>
       </c>
       <c r="O20" s="2">
-        <v>2391604</v>
+        <v>3527755</v>
       </c>
       <c r="P20" s="2">
-        <v>27679566</v>
+        <v>13422791</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
-        <v>136635217</v>
+        <v>19760642</v>
       </c>
       <c r="C21" s="2">
-        <v>76500584</v>
+        <v>76981263</v>
       </c>
       <c r="D21" s="2">
-        <v>2124523230</v>
+        <v>5132416797</v>
       </c>
       <c r="E21" s="2">
-        <v>14595104</v>
+        <v>29025076</v>
       </c>
       <c r="F21" s="2">
-        <v>15948223</v>
+        <v>5831119</v>
       </c>
       <c r="G21" s="2">
-        <v>1780888</v>
+        <v>590301</v>
       </c>
       <c r="H21" s="2">
-        <v>2058410</v>
+        <v>807713</v>
       </c>
       <c r="I21" s="2">
-        <v>78277271</v>
+        <v>97992204</v>
       </c>
       <c r="J21" s="2">
-        <v>66338273</v>
+        <v>207345854</v>
       </c>
       <c r="K21" s="2">
-        <v>11495215342</v>
+        <v>23146403429</v>
       </c>
       <c r="L21" s="2">
-        <v>54914</v>
+        <v>118290</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N21" s="2">
-        <v>25896964</v>
+        <v>61739020</v>
       </c>
       <c r="O21" s="2">
-        <v>3527755</v>
+        <v>3763157</v>
       </c>
       <c r="P21" s="2">
-        <v>13422791</v>
+        <v>50286348</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2">
         <v>74815491</v>
       </c>
       <c r="C22" s="2">
-        <v>76311637</v>
+        <v>76915827</v>
       </c>
       <c r="D22" s="2">
-        <v>1592746944</v>
+        <v>1606269564</v>
       </c>
       <c r="E22" s="2">
         <v>22031819</v>
@@ -2335,16 +2337,16 @@
         <v>747521</v>
       </c>
       <c r="I22" s="2">
-        <v>50055269</v>
+        <v>50258073</v>
       </c>
       <c r="J22" s="2">
-        <v>54107952</v>
+        <v>54682681</v>
       </c>
       <c r="K22" s="2">
         <v>1101235351</v>
       </c>
       <c r="L22" s="2">
-        <v>35124</v>
+        <v>35150</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>17</v>
@@ -2361,102 +2363,102 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
-        <v>58744662</v>
+        <v>64570107</v>
       </c>
       <c r="C23" s="2">
-        <v>75709675</v>
+        <v>75723856</v>
       </c>
       <c r="D23" s="2">
-        <v>3872653558</v>
+        <v>1844244100</v>
       </c>
       <c r="E23" s="2">
-        <v>19140512</v>
+        <v>17646703</v>
       </c>
       <c r="F23" s="2">
-        <v>1325324</v>
+        <v>5410354</v>
       </c>
       <c r="G23" s="2">
-        <v>1342985</v>
+        <v>1111711</v>
       </c>
       <c r="H23" s="2">
-        <v>338891</v>
+        <v>2393062</v>
       </c>
       <c r="I23" s="2">
-        <v>52140746</v>
+        <v>47548940</v>
       </c>
       <c r="J23" s="2">
-        <v>167346975</v>
+        <v>67793848</v>
       </c>
       <c r="K23" s="2">
-        <v>7062689203</v>
+        <v>822779549</v>
       </c>
       <c r="L23" s="2">
-        <v>110436</v>
+        <v>67753</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N23" s="2">
-        <v>32158439</v>
+        <v>12255945</v>
       </c>
       <c r="O23" s="2">
-        <v>3064508</v>
+        <v>2503190</v>
       </c>
       <c r="P23" s="2">
-        <v>30338281</v>
+        <v>14310617</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>58744662</v>
+      </c>
+      <c r="C24" s="2">
+        <v>75603753</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3881041258</v>
+      </c>
+      <c r="E24" s="2">
+        <v>19140512</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1325324</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1342985</v>
+      </c>
+      <c r="H24" s="2">
+        <v>338891</v>
+      </c>
+      <c r="I24" s="2">
+        <v>52412726</v>
+      </c>
+      <c r="J24" s="2">
+        <v>167630370</v>
+      </c>
+      <c r="K24" s="2">
+        <v>7062689203</v>
+      </c>
+      <c r="L24" s="2">
+        <v>110536</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2">
-        <v>28063072</v>
-      </c>
-      <c r="C24" s="2">
-        <v>76003451</v>
-      </c>
-      <c r="D24" s="2">
-        <v>7620197825</v>
-      </c>
-      <c r="E24" s="2">
-        <v>23477441</v>
-      </c>
-      <c r="F24" s="2">
-        <v>13179189</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3615745</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5346637</v>
-      </c>
-      <c r="I24" s="2">
-        <v>238977407</v>
-      </c>
-      <c r="J24" s="2">
-        <v>259958494</v>
-      </c>
-      <c r="K24" s="2">
-        <v>34370586864</v>
-      </c>
-      <c r="L24" s="2">
-        <v>179610</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="N24" s="2">
-        <v>38681661</v>
+        <v>32158439</v>
       </c>
       <c r="O24" s="2">
-        <v>1126072</v>
+        <v>3064508</v>
       </c>
       <c r="P24" s="2">
-        <v>26810359</v>
+        <v>30338281</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2464,49 +2466,49 @@
         <v>41</v>
       </c>
       <c r="B25" s="2">
-        <v>64570107</v>
+        <v>28063072</v>
       </c>
       <c r="C25" s="2">
-        <v>75661236</v>
+        <v>75236383</v>
       </c>
       <c r="D25" s="2">
-        <v>1844244100</v>
+        <v>7636377805</v>
       </c>
       <c r="E25" s="2">
-        <v>17646703</v>
+        <v>23477441</v>
       </c>
       <c r="F25" s="2">
-        <v>5410354</v>
+        <v>13179189</v>
       </c>
       <c r="G25" s="2">
-        <v>1111711</v>
+        <v>3615745</v>
       </c>
       <c r="H25" s="2">
-        <v>2393062</v>
+        <v>5346637</v>
       </c>
       <c r="I25" s="2">
-        <v>47548940</v>
+        <v>239024605</v>
       </c>
       <c r="J25" s="2">
-        <v>67793848</v>
+        <v>260743894</v>
       </c>
       <c r="K25" s="2">
-        <v>822779549</v>
+        <v>34370586864</v>
       </c>
       <c r="L25" s="2">
-        <v>67740</v>
+        <v>179701</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N25" s="2">
-        <v>12255945</v>
+        <v>38681661</v>
       </c>
       <c r="O25" s="2">
-        <v>2503190</v>
+        <v>1126072</v>
       </c>
       <c r="P25" s="2">
-        <v>14310617</v>
+        <v>26810359</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2514,49 +2516,49 @@
         <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>113277991</v>
+        <v>59061395</v>
       </c>
       <c r="C26" s="2">
-        <v>74426995</v>
+        <v>74263709</v>
       </c>
       <c r="D26" s="2">
-        <v>3629579392</v>
+        <v>2664575122</v>
       </c>
       <c r="E26" s="2">
-        <v>20620034</v>
+        <v>32653518</v>
       </c>
       <c r="F26" s="2">
-        <v>54506352</v>
+        <v>49374273</v>
       </c>
       <c r="G26" s="2">
-        <v>8757574</v>
+        <v>2322460</v>
       </c>
       <c r="H26" s="2">
-        <v>13262701</v>
+        <v>3632912</v>
       </c>
       <c r="I26" s="2">
-        <v>141973207</v>
+        <v>101289902</v>
       </c>
       <c r="J26" s="2">
-        <v>106419005</v>
+        <v>81131234</v>
       </c>
       <c r="K26" s="2">
-        <v>27255644105</v>
+        <v>5649861440</v>
       </c>
       <c r="L26" s="2">
-        <v>65569</v>
+        <v>341967</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="2">
-        <v>36810608</v>
+        <v>30641042</v>
       </c>
       <c r="O26" s="2">
-        <v>4115167</v>
+        <v>3535425</v>
       </c>
       <c r="P26" s="2">
-        <v>38427739</v>
+        <v>30296391</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -2564,49 +2566,49 @@
         <v>43</v>
       </c>
       <c r="B27" s="2">
-        <v>59061395</v>
+        <v>38161087</v>
       </c>
       <c r="C27" s="2">
-        <v>74004113</v>
+        <v>73154749</v>
       </c>
       <c r="D27" s="2">
-        <v>2664575122</v>
+        <v>2493218054</v>
       </c>
       <c r="E27" s="2">
-        <v>32653518</v>
+        <v>20223277</v>
       </c>
       <c r="F27" s="2">
-        <v>49374273</v>
+        <v>134558403</v>
       </c>
       <c r="G27" s="2">
-        <v>2322460</v>
+        <v>5919590</v>
       </c>
       <c r="H27" s="2">
-        <v>3632912</v>
+        <v>7412246</v>
       </c>
       <c r="I27" s="2">
-        <v>101289902</v>
+        <v>81331777</v>
       </c>
       <c r="J27" s="2">
-        <v>81131234</v>
+        <v>80575022</v>
       </c>
       <c r="K27" s="2">
-        <v>5649861440</v>
+        <v>3685420386</v>
       </c>
       <c r="L27" s="2">
-        <v>341939</v>
+        <v>76723</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N27" s="2">
-        <v>30641042</v>
+        <v>20040689</v>
       </c>
       <c r="O27" s="2">
-        <v>3535425</v>
+        <v>1531501</v>
       </c>
       <c r="P27" s="2">
-        <v>30296391</v>
+        <v>36433788</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -2712,49 +2714,49 @@
         <v>46</v>
       </c>
       <c r="B30" s="2">
-        <v>38161087</v>
+        <v>113277991</v>
       </c>
       <c r="C30" s="2">
-        <v>72640043</v>
+        <v>71909334</v>
       </c>
       <c r="D30" s="2">
-        <v>2493218054</v>
+        <v>3631945912</v>
       </c>
       <c r="E30" s="2">
-        <v>20223277</v>
+        <v>20620034</v>
       </c>
       <c r="F30" s="2">
-        <v>134558403</v>
+        <v>54506352</v>
       </c>
       <c r="G30" s="2">
-        <v>5919590</v>
+        <v>8757574</v>
       </c>
       <c r="H30" s="2">
-        <v>7412246</v>
+        <v>13262701</v>
       </c>
       <c r="I30" s="2">
-        <v>81331777</v>
+        <v>141999039</v>
       </c>
       <c r="J30" s="2">
-        <v>80575022</v>
+        <v>106524415</v>
       </c>
       <c r="K30" s="2">
-        <v>3685420386</v>
+        <v>27255644105</v>
       </c>
       <c r="L30" s="2">
-        <v>76665</v>
+        <v>65625</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N30" s="2">
-        <v>20040689</v>
+        <v>36810608</v>
       </c>
       <c r="O30" s="2">
-        <v>1531501</v>
+        <v>4115167</v>
       </c>
       <c r="P30" s="2">
-        <v>36433788</v>
+        <v>38427739</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2762,49 +2764,49 @@
         <v>47</v>
       </c>
       <c r="B31" s="2">
-        <v>116198736</v>
+        <v>48975732</v>
       </c>
       <c r="C31" s="2">
-        <v>72423735</v>
+        <v>72401849</v>
       </c>
       <c r="D31" s="2">
-        <v>923921569</v>
+        <v>3831714577</v>
       </c>
       <c r="E31" s="2">
-        <v>6688181</v>
+        <v>22183248</v>
       </c>
       <c r="F31" s="2">
-        <v>1004885</v>
+        <v>64965815</v>
       </c>
       <c r="G31" s="2">
-        <v>398152</v>
+        <v>2903440</v>
       </c>
       <c r="H31" s="2">
-        <v>216422</v>
+        <v>4711301</v>
       </c>
       <c r="I31" s="2">
-        <v>16379364</v>
+        <v>114507041</v>
       </c>
       <c r="J31" s="2">
-        <v>37913248</v>
+        <v>132449946</v>
       </c>
       <c r="K31" s="2">
-        <v>713061031</v>
+        <v>2489405077</v>
       </c>
       <c r="L31" s="2">
-        <v>39730</v>
+        <v>88047</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N31" s="2">
-        <v>11522849</v>
+        <v>34121669</v>
       </c>
       <c r="O31" s="2">
-        <v>2992936</v>
+        <v>3565415</v>
       </c>
       <c r="P31" s="2">
-        <v>13494013</v>
+        <v>17976825</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -2815,7 +2817,7 @@
         <v>74359287</v>
       </c>
       <c r="C32" s="2">
-        <v>71400258</v>
+        <v>71720180</v>
       </c>
       <c r="D32" s="2">
         <v>1769384978</v>
@@ -2842,7 +2844,7 @@
         <v>14894886314</v>
       </c>
       <c r="L32" s="2">
-        <v>103281</v>
+        <v>103290</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>17</v>
@@ -2859,10 +2861,10 @@
         <v>58349304</v>
       </c>
       <c r="C33" s="2">
-        <v>70934688</v>
+        <v>71098300</v>
       </c>
       <c r="D33" s="2">
-        <v>5969024306</v>
+        <v>5970913496</v>
       </c>
       <c r="E33" s="2">
         <v>29482240</v>
@@ -2877,16 +2879,16 @@
         <v>11619543</v>
       </c>
       <c r="I33" s="2">
-        <v>211529057</v>
+        <v>211550112</v>
       </c>
       <c r="J33" s="2">
-        <v>188971811</v>
+        <v>189055743</v>
       </c>
       <c r="K33" s="2">
         <v>49778117419</v>
       </c>
       <c r="L33" s="2">
-        <v>122537</v>
+        <v>122603</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>17</v>
@@ -2900,49 +2902,49 @@
         <v>50</v>
       </c>
       <c r="B34" s="2">
-        <v>49499709</v>
+        <v>116198736</v>
       </c>
       <c r="C34" s="2">
-        <v>69989994</v>
+        <v>72441925</v>
       </c>
       <c r="D34" s="2">
-        <v>6458937366</v>
+        <v>925540289</v>
       </c>
       <c r="E34" s="2">
-        <v>40031258</v>
+        <v>6688181</v>
       </c>
       <c r="F34" s="2">
-        <v>15439184</v>
+        <v>1004885</v>
       </c>
       <c r="G34" s="2">
-        <v>7436330</v>
+        <v>398152</v>
       </c>
       <c r="H34" s="2">
-        <v>8275990</v>
+        <v>216422</v>
       </c>
       <c r="I34" s="2">
-        <v>168042317</v>
+        <v>16383486</v>
       </c>
       <c r="J34" s="2">
-        <v>236372487</v>
+        <v>37992123</v>
       </c>
       <c r="K34" s="2">
-        <v>15497203589</v>
+        <v>713061031</v>
       </c>
       <c r="L34" s="2">
-        <v>319705</v>
+        <v>39738</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N34" s="2">
-        <v>38206755</v>
+        <v>11522849</v>
       </c>
       <c r="O34" s="2">
-        <v>3107101</v>
+        <v>2992936</v>
       </c>
       <c r="P34" s="2">
-        <v>35766017</v>
+        <v>13494013</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -2950,49 +2952,49 @@
         <v>51</v>
       </c>
       <c r="B35" s="2">
-        <v>48975732</v>
+        <v>76274504</v>
       </c>
       <c r="C35" s="2">
-        <v>70512648</v>
+        <v>69280255</v>
       </c>
       <c r="D35" s="2">
-        <v>3816228287</v>
+        <v>972664491</v>
       </c>
       <c r="E35" s="2">
-        <v>22183248</v>
+        <v>22065875</v>
       </c>
       <c r="F35" s="2">
-        <v>64965815</v>
+        <v>28742795</v>
       </c>
       <c r="G35" s="2">
-        <v>2903440</v>
+        <v>176033</v>
       </c>
       <c r="H35" s="2">
-        <v>4711301</v>
+        <v>210559</v>
       </c>
       <c r="I35" s="2">
-        <v>114031576</v>
+        <v>23302809</v>
       </c>
       <c r="J35" s="2">
-        <v>131913364</v>
+        <v>36634677</v>
       </c>
       <c r="K35" s="2">
-        <v>2489405077</v>
+        <v>8754952590</v>
       </c>
       <c r="L35" s="2">
-        <v>87982</v>
+        <v>30127</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N35" s="2">
-        <v>34121669</v>
+        <v>30228075</v>
       </c>
       <c r="O35" s="2">
-        <v>3565415</v>
+        <v>3893440</v>
       </c>
       <c r="P35" s="2">
-        <v>17976825</v>
+        <v>30875936</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -3000,87 +3002,81 @@
         <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>76274504</v>
+        <v>18103697</v>
       </c>
       <c r="C36" s="2">
-        <v>70166938</v>
+        <v>69185537</v>
       </c>
       <c r="D36" s="2">
-        <v>965448501</v>
+        <v>866834765</v>
       </c>
       <c r="E36" s="2">
-        <v>22065875</v>
+        <v>20667788</v>
       </c>
       <c r="F36" s="2">
-        <v>28742795</v>
+        <v>451466</v>
       </c>
       <c r="G36" s="2">
-        <v>176033</v>
+        <v>180942</v>
       </c>
       <c r="H36" s="2">
-        <v>210559</v>
+        <v>138942</v>
       </c>
       <c r="I36" s="2">
-        <v>23201696</v>
+        <v>19198934</v>
       </c>
       <c r="J36" s="2">
-        <v>36324434</v>
+        <v>33691874</v>
       </c>
       <c r="K36" s="2">
-        <v>8754952590</v>
+        <v>3008483403</v>
       </c>
       <c r="L36" s="2">
-        <v>30095</v>
+        <v>79770</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="2">
-        <v>30228075</v>
-      </c>
-      <c r="O36" s="2">
-        <v>3893440</v>
-      </c>
-      <c r="P36" s="2">
-        <v>30875936</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>18103697</v>
+        <v>16365096</v>
       </c>
       <c r="C37" s="2">
-        <v>69249806</v>
+        <v>67749333</v>
       </c>
       <c r="D37" s="2">
-        <v>866834445</v>
+        <v>1628686379</v>
       </c>
       <c r="E37" s="2">
-        <v>20667788</v>
+        <v>16673355</v>
       </c>
       <c r="F37" s="2">
-        <v>451466</v>
+        <v>13529997</v>
       </c>
       <c r="G37" s="2">
-        <v>180942</v>
+        <v>2572039</v>
       </c>
       <c r="H37" s="2">
-        <v>138942</v>
+        <v>1188728</v>
       </c>
       <c r="I37" s="2">
-        <v>19198934</v>
+        <v>52061015</v>
       </c>
       <c r="J37" s="2">
-        <v>33691858</v>
+        <v>54773562</v>
       </c>
       <c r="K37" s="2">
-        <v>3008483403</v>
+        <v>8630657761</v>
       </c>
       <c r="L37" s="2">
-        <v>79751</v>
+        <v>186881</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>17</v>
@@ -3094,37 +3090,37 @@
         <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>16365096</v>
+        <v>49407662</v>
       </c>
       <c r="C38" s="2">
-        <v>67993877</v>
+        <v>67251319</v>
       </c>
       <c r="D38" s="2">
-        <v>1626190809</v>
+        <v>2385941954</v>
       </c>
       <c r="E38" s="2">
-        <v>16650459</v>
+        <v>19627452</v>
       </c>
       <c r="F38" s="2">
-        <v>13529997</v>
+        <v>29191380</v>
       </c>
       <c r="G38" s="2">
-        <v>2572039</v>
+        <v>3519496</v>
       </c>
       <c r="H38" s="2">
-        <v>1188728</v>
+        <v>2875749</v>
       </c>
       <c r="I38" s="2">
-        <v>52027964</v>
+        <v>69974029</v>
       </c>
       <c r="J38" s="2">
-        <v>54665309</v>
+        <v>83091070</v>
       </c>
       <c r="K38" s="2">
-        <v>8630657761</v>
+        <v>3816178662</v>
       </c>
       <c r="L38" s="2">
-        <v>186842</v>
+        <v>104024</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>17</v>
@@ -3138,138 +3134,144 @@
         <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>49407662</v>
+        <v>123185482</v>
       </c>
       <c r="C39" s="2">
-        <v>66087394</v>
+        <v>66822364</v>
       </c>
       <c r="D39" s="2">
-        <v>2385026494</v>
+        <v>1197344440</v>
       </c>
       <c r="E39" s="2">
-        <v>19627452</v>
+        <v>15945250</v>
       </c>
       <c r="F39" s="2">
-        <v>29191380</v>
+        <v>62324093</v>
       </c>
       <c r="G39" s="2">
-        <v>3519496</v>
+        <v>9616364</v>
       </c>
       <c r="H39" s="2">
-        <v>2875749</v>
+        <v>21172006</v>
       </c>
       <c r="I39" s="2">
-        <v>69972175</v>
+        <v>56250251</v>
       </c>
       <c r="J39" s="2">
-        <v>83046224</v>
+        <v>25922818</v>
       </c>
       <c r="K39" s="2">
-        <v>3816178662</v>
+        <v>6901378937</v>
       </c>
       <c r="L39" s="2">
-        <v>103971</v>
+        <v>92226</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="N39" s="2">
+        <v>30089060</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1837223</v>
+      </c>
+      <c r="P39" s="2">
+        <v>25900072</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="2">
-        <v>46393719</v>
+        <v>49499709</v>
       </c>
       <c r="C40" s="2">
-        <v>66008218</v>
+        <v>66317624</v>
       </c>
       <c r="D40" s="2">
-        <v>280732163</v>
+        <v>6488180350</v>
       </c>
       <c r="E40" s="2">
-        <v>7569919</v>
+        <v>4004314</v>
       </c>
       <c r="F40" s="2">
-        <v>10461538</v>
+        <v>15480853</v>
       </c>
       <c r="G40" s="2">
-        <v>10677990</v>
+        <v>7436330</v>
       </c>
       <c r="H40" s="2">
-        <v>9055734</v>
+        <v>8275990</v>
       </c>
       <c r="I40" s="2">
-        <v>16752596</v>
+        <v>168320160</v>
       </c>
       <c r="J40" s="2">
-        <v>2676749</v>
+        <v>237695298</v>
       </c>
       <c r="K40" s="2">
-        <v>558870458</v>
+        <v>15497203589</v>
       </c>
       <c r="L40" s="2">
-        <v>97599</v>
+        <v>3219820</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="N40" s="2">
+        <v>38206755</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3107101</v>
+      </c>
+      <c r="P40" s="2">
+        <v>35766017</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="2">
+        <v>46393719</v>
+      </c>
+      <c r="C41" s="2">
+        <v>66153008</v>
+      </c>
+      <c r="D41" s="2">
+        <v>280732163</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7569919</v>
+      </c>
+      <c r="F41" s="2">
+        <v>10461538</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10677990</v>
+      </c>
+      <c r="H41" s="2">
+        <v>9055734</v>
+      </c>
+      <c r="I41" s="2">
+        <v>16752596</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2676749</v>
+      </c>
+      <c r="K41" s="2">
+        <v>558870458</v>
+      </c>
+      <c r="L41" s="2">
+        <v>37600</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="2">
-        <v>123185482</v>
-      </c>
-      <c r="C41" s="2">
-        <v>66315080</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1197343360</v>
-      </c>
-      <c r="E41" s="2">
-        <v>15945250</v>
-      </c>
-      <c r="F41" s="2">
-        <v>62324093</v>
-      </c>
-      <c r="G41" s="2">
-        <v>9616364</v>
-      </c>
-      <c r="H41" s="2">
-        <v>21172006</v>
-      </c>
-      <c r="I41" s="2">
-        <v>56250251</v>
-      </c>
-      <c r="J41" s="2">
-        <v>25922764</v>
-      </c>
-      <c r="K41" s="2">
-        <v>6901378937</v>
-      </c>
-      <c r="L41" s="2">
-        <v>92101</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="2">
-        <v>30089060</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1837223</v>
-      </c>
-      <c r="P41" s="2">
-        <v>25900072</v>
-      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -3279,10 +3281,10 @@
         <v>9660755</v>
       </c>
       <c r="C42" s="2">
-        <v>65237105</v>
+        <v>64374283</v>
       </c>
       <c r="D42" s="2">
-        <v>1343822850</v>
+        <v>1344100110</v>
       </c>
       <c r="E42" s="2">
         <v>23356884</v>
@@ -3300,13 +3302,13 @@
         <v>36140935</v>
       </c>
       <c r="J42" s="2">
-        <v>48939647</v>
+        <v>48953510</v>
       </c>
       <c r="K42" s="2">
         <v>25506725027</v>
       </c>
       <c r="L42" s="2">
-        <v>128623</v>
+        <v>128651</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>17</v>
@@ -3329,10 +3331,10 @@
         <v>3732705</v>
       </c>
       <c r="C43" s="2">
-        <v>61188539</v>
+        <v>62381283</v>
       </c>
       <c r="D43" s="2">
-        <v>1180509896</v>
+        <v>1180517796</v>
       </c>
       <c r="E43" s="2">
         <v>15659274</v>
@@ -3350,13 +3352,13 @@
         <v>25204213</v>
       </c>
       <c r="J43" s="2">
-        <v>46038710</v>
+        <v>46039105</v>
       </c>
       <c r="K43" s="2">
         <v>10176842826</v>
       </c>
       <c r="L43" s="2">
-        <v>69477</v>
+        <v>69490</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>17</v>
@@ -3376,47 +3378,49 @@
         <v>61</v>
       </c>
       <c r="B44" s="2">
-        <v>38173573</v>
+        <v>116006542</v>
       </c>
       <c r="C44" s="2">
-        <v>58367053</v>
+        <v>58625301</v>
       </c>
       <c r="D44" s="2">
-        <v>1145200888</v>
+        <v>230992975</v>
       </c>
       <c r="E44" s="2">
-        <v>17449343</v>
+        <v>934691</v>
       </c>
       <c r="F44" s="2">
-        <v>48453162</v>
+        <v>135516</v>
       </c>
       <c r="G44" s="2">
-        <v>712808</v>
+        <v>156779</v>
       </c>
       <c r="H44" s="2">
-        <v>640815</v>
+        <v>39951</v>
       </c>
       <c r="I44" s="2">
-        <v>33271110</v>
+        <v>7650883</v>
       </c>
       <c r="J44" s="2">
-        <v>39940514</v>
+        <v>7699184</v>
       </c>
       <c r="K44" s="2">
-        <v>3063476849</v>
+        <v>119685088</v>
       </c>
       <c r="L44" s="2">
-        <v>19680</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>34270</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N44" s="2">
-        <v>5766765</v>
+        <v>2593809</v>
       </c>
       <c r="O44" s="2">
-        <v>1472946</v>
+        <v>1664987</v>
       </c>
       <c r="P44" s="2">
-        <v>5447741</v>
+        <v>8422654</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -3424,47 +3428,47 @@
         <v>62</v>
       </c>
       <c r="B45" s="2">
-        <v>146589818</v>
+        <v>38173573</v>
       </c>
       <c r="C45" s="2">
-        <v>57038851</v>
+        <v>58367053</v>
       </c>
       <c r="D45" s="2">
-        <v>231516397</v>
+        <v>1145200888</v>
       </c>
       <c r="E45" s="2">
-        <v>6140063</v>
+        <v>17449343</v>
       </c>
       <c r="F45" s="2">
-        <v>11591707</v>
+        <v>48453162</v>
       </c>
       <c r="G45" s="2">
-        <v>785544</v>
+        <v>712808</v>
       </c>
       <c r="H45" s="2">
-        <v>1087962</v>
+        <v>640815</v>
       </c>
       <c r="I45" s="2">
-        <v>7863546</v>
+        <v>33271110</v>
       </c>
       <c r="J45" s="2">
-        <v>7231983</v>
+        <v>39940514</v>
       </c>
       <c r="K45" s="2">
-        <v>326802055</v>
+        <v>3063476849</v>
       </c>
       <c r="L45" s="2">
-        <v>30123</v>
+        <v>19680</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2">
-        <v>10793410</v>
+        <v>5766765</v>
       </c>
       <c r="O45" s="2">
-        <v>1765801</v>
+        <v>1472946</v>
       </c>
       <c r="P45" s="2">
-        <v>16476554</v>
+        <v>5447741</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -3472,47 +3476,47 @@
         <v>63</v>
       </c>
       <c r="B46" s="2">
-        <v>82291199</v>
+        <v>146589818</v>
       </c>
       <c r="C46" s="2">
-        <v>56813161</v>
+        <v>57038851</v>
       </c>
       <c r="D46" s="2">
-        <v>1046423185</v>
+        <v>231516397</v>
       </c>
       <c r="E46" s="2">
-        <v>19134962</v>
+        <v>6140063</v>
       </c>
       <c r="F46" s="2">
-        <v>8026968</v>
+        <v>11591707</v>
       </c>
       <c r="G46" s="2">
-        <v>1362502</v>
+        <v>785544</v>
       </c>
       <c r="H46" s="2">
-        <v>195262</v>
+        <v>1087962</v>
       </c>
       <c r="I46" s="2">
-        <v>28115790</v>
+        <v>7863546</v>
       </c>
       <c r="J46" s="2">
-        <v>38007692</v>
+        <v>7231983</v>
       </c>
       <c r="K46" s="2">
-        <v>28893128903</v>
+        <v>326802055</v>
       </c>
       <c r="L46" s="2">
-        <v>48775</v>
+        <v>30123</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
-        <v>4495920</v>
+        <v>10793410</v>
       </c>
       <c r="O46" s="2">
-        <v>1220826</v>
+        <v>1765801</v>
       </c>
       <c r="P46" s="2">
-        <v>7429445</v>
+        <v>16476554</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -3520,79 +3524,85 @@
         <v>64</v>
       </c>
       <c r="B47" s="2">
-        <v>45454322</v>
+        <v>82291199</v>
       </c>
       <c r="C47" s="2">
-        <v>56098786</v>
+        <v>56813161</v>
       </c>
       <c r="D47" s="2">
-        <v>705541139</v>
+        <v>1046423185</v>
       </c>
       <c r="E47" s="2">
-        <v>6181024</v>
+        <v>19134962</v>
       </c>
       <c r="F47" s="2">
-        <v>6173728</v>
+        <v>8026968</v>
       </c>
       <c r="G47" s="2">
-        <v>1928073</v>
+        <v>1362502</v>
       </c>
       <c r="H47" s="2">
-        <v>3503492</v>
+        <v>195262</v>
       </c>
       <c r="I47" s="2">
-        <v>21966394</v>
+        <v>28115790</v>
       </c>
       <c r="J47" s="2">
-        <v>23338617</v>
+        <v>38007692</v>
       </c>
       <c r="K47" s="2">
-        <v>6667197214</v>
+        <v>28893128903</v>
       </c>
       <c r="L47" s="2">
-        <v>74273</v>
+        <v>48775</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="N47" s="2">
+        <v>4495920</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1220826</v>
+      </c>
+      <c r="P47" s="2">
+        <v>7429445</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="2">
-        <v>43736244</v>
+        <v>45454322</v>
       </c>
       <c r="C48" s="2">
-        <v>55442593</v>
+        <v>56098786</v>
       </c>
       <c r="D48" s="2">
-        <v>599071616</v>
+        <v>705541139</v>
       </c>
       <c r="E48" s="2">
-        <v>18201920</v>
+        <v>6181024</v>
       </c>
       <c r="F48" s="2">
-        <v>16552552</v>
+        <v>6173728</v>
       </c>
       <c r="G48" s="2">
-        <v>553714</v>
+        <v>1928073</v>
       </c>
       <c r="H48" s="2">
-        <v>176147</v>
+        <v>3503492</v>
       </c>
       <c r="I48" s="2">
-        <v>15343923</v>
+        <v>21966394</v>
       </c>
       <c r="J48" s="2">
-        <v>22025493</v>
+        <v>23338617</v>
       </c>
       <c r="K48" s="2">
-        <v>3347162108</v>
+        <v>6667197214</v>
       </c>
       <c r="L48" s="2">
-        <v>80289</v>
+        <v>74273</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -3604,97 +3614,89 @@
         <v>66</v>
       </c>
       <c r="B49" s="2">
-        <v>41355236</v>
+        <v>43736244</v>
       </c>
       <c r="C49" s="2">
-        <v>54177695</v>
+        <v>55442593</v>
       </c>
       <c r="D49" s="2">
-        <v>596702879</v>
+        <v>599071616</v>
       </c>
       <c r="E49" s="2">
-        <v>9463597</v>
+        <v>18201920</v>
       </c>
       <c r="F49" s="2">
-        <v>13718426</v>
+        <v>16552552</v>
       </c>
       <c r="G49" s="2">
-        <v>4123738</v>
+        <v>553714</v>
       </c>
       <c r="H49" s="2">
-        <v>4047817</v>
+        <v>176147</v>
       </c>
       <c r="I49" s="2">
-        <v>35718099</v>
+        <v>15343923</v>
       </c>
       <c r="J49" s="2">
-        <v>10616973</v>
+        <v>22025493</v>
       </c>
       <c r="K49" s="2">
-        <v>3394785187</v>
+        <v>3347162108</v>
       </c>
       <c r="L49" s="2">
-        <v>12225</v>
+        <v>80289</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2">
-        <v>3337993</v>
-      </c>
-      <c r="O49" s="2">
-        <v>368258</v>
-      </c>
-      <c r="P49" s="2">
-        <v>4041773</v>
-      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="2">
-        <v>116006542</v>
+        <v>41355236</v>
       </c>
       <c r="C50" s="2">
-        <v>53929661</v>
+        <v>54177695</v>
       </c>
       <c r="D50" s="2">
-        <v>230903335</v>
+        <v>596702879</v>
       </c>
       <c r="E50" s="2">
-        <v>9270659</v>
+        <v>9463597</v>
       </c>
       <c r="F50" s="2">
-        <v>135516</v>
+        <v>13718426</v>
       </c>
       <c r="G50" s="2">
-        <v>156779</v>
+        <v>4123738</v>
       </c>
       <c r="H50" s="2">
-        <v>39951</v>
+        <v>4047817</v>
       </c>
       <c r="I50" s="2">
-        <v>7650883</v>
+        <v>35718099</v>
       </c>
       <c r="J50" s="2">
-        <v>7694702</v>
+        <v>10616973</v>
       </c>
       <c r="K50" s="2">
-        <v>119685088</v>
+        <v>3394785187</v>
       </c>
       <c r="L50" s="2">
-        <v>34196</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>12225</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2">
-        <v>2593809</v>
+        <v>3337993</v>
       </c>
       <c r="O50" s="2">
-        <v>1664987</v>
+        <v>368258</v>
       </c>
       <c r="P50" s="2">
-        <v>8422654</v>
+        <v>4041773</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -3705,7 +3707,7 @@
         <v>64773635</v>
       </c>
       <c r="C51" s="2">
-        <v>51895992</v>
+        <v>52062144</v>
       </c>
       <c r="D51" s="2">
         <v>141348913</v>
@@ -3729,10 +3731,10 @@
         <v>4885179</v>
       </c>
       <c r="K51" s="2">
-        <v>45714118316</v>
+        <v>46838887766</v>
       </c>
       <c r="L51" s="2">
-        <v>13156</v>
+        <v>13160</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>17</v>
@@ -3803,13 +3805,13 @@
         <v>67719250</v>
       </c>
       <c r="C53" s="2">
-        <v>46591346</v>
+        <v>46567210</v>
       </c>
       <c r="D53" s="2">
-        <v>85191416</v>
+        <v>86372296</v>
       </c>
       <c r="E53" s="2">
-        <v>7024294</v>
+        <v>7074164</v>
       </c>
       <c r="F53" s="2">
         <v>63459512</v>
@@ -3821,16 +3823,16 @@
         <v>122259</v>
       </c>
       <c r="I53" s="2">
-        <v>2060278</v>
+        <v>2088372</v>
       </c>
       <c r="J53" s="2">
-        <v>2569990</v>
+        <v>2614987</v>
       </c>
       <c r="K53" s="2">
-        <v>8489023221</v>
+        <v>8609023221</v>
       </c>
       <c r="L53" s="2">
-        <v>15301</v>
+        <v>15312</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>17</v>
@@ -3853,10 +3855,10 @@
         <v>71753312</v>
       </c>
       <c r="C54" s="2">
-        <v>42777809</v>
+        <v>42954611</v>
       </c>
       <c r="D54" s="2">
-        <v>388446786</v>
+        <v>388468366</v>
       </c>
       <c r="E54" s="2">
         <v>20215594</v>
@@ -3874,13 +3876,13 @@
         <v>10091003</v>
       </c>
       <c r="J54" s="2">
-        <v>14155383</v>
+        <v>14156462</v>
       </c>
       <c r="K54" s="2">
         <v>35590980642</v>
       </c>
       <c r="L54" s="2">
-        <v>69397</v>
+        <v>69526</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>17</v>
@@ -3903,13 +3905,13 @@
         <v>65057849</v>
       </c>
       <c r="C55" s="2">
-        <v>42616915</v>
+        <v>42394014</v>
       </c>
       <c r="D55" s="2">
-        <v>435568551</v>
+        <v>436082071</v>
       </c>
       <c r="E55" s="2">
-        <v>14279715</v>
+        <v>14311928</v>
       </c>
       <c r="F55" s="2">
         <v>3857297</v>
@@ -3921,16 +3923,16 @@
         <v>463504</v>
       </c>
       <c r="I55" s="2">
-        <v>17338854</v>
+        <v>17351650</v>
       </c>
       <c r="J55" s="2">
-        <v>12908135</v>
+        <v>12927413</v>
       </c>
       <c r="K55" s="2">
         <v>20974313782</v>
       </c>
       <c r="L55" s="2">
-        <v>198198</v>
+        <v>19830</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>17</v>
@@ -3953,10 +3955,10 @@
         <v>70307141</v>
       </c>
       <c r="C56" s="2">
-        <v>34662547</v>
+        <v>34540701</v>
       </c>
       <c r="D56" s="2">
-        <v>14213377</v>
+        <v>14219197</v>
       </c>
       <c r="E56" s="2">
         <v>5283739</v>
@@ -3974,13 +3976,13 @@
         <v>552308</v>
       </c>
       <c r="J56" s="2">
-        <v>434099</v>
+        <v>434390</v>
       </c>
       <c r="K56" s="2">
         <v>16602804852</v>
       </c>
       <c r="L56" s="2">
-        <v>6058</v>
+        <v>6061</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>17</v>
@@ -4045,16 +4047,16 @@
         <v>116370262</v>
       </c>
       <c r="C58" s="2">
-        <v>33706966</v>
+        <v>33486390</v>
       </c>
       <c r="D58" s="2">
-        <v>183222451</v>
+        <v>184240106</v>
       </c>
       <c r="E58" s="2">
-        <v>7605387</v>
+        <v>7667806</v>
       </c>
       <c r="F58" s="2">
-        <v>2143199</v>
+        <v>2143221</v>
       </c>
       <c r="G58" s="2">
         <v>1429622</v>
@@ -4063,16 +4065,16 @@
         <v>514642</v>
       </c>
       <c r="I58" s="2">
-        <v>5413192</v>
+        <v>5439191</v>
       </c>
       <c r="J58" s="2">
-        <v>6187204</v>
+        <v>6225087</v>
       </c>
       <c r="K58" s="2">
         <v>1576543254</v>
       </c>
       <c r="L58" s="2">
-        <v>16130</v>
+        <v>16164</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>17</v>
@@ -4189,7 +4191,7 @@
         <v>179979725</v>
       </c>
       <c r="C61" s="2">
-        <v>33066028</v>
+        <v>33109244</v>
       </c>
       <c r="D61" s="2">
         <v>46460</v>
@@ -4229,10 +4231,10 @@
         <v>76028022</v>
       </c>
       <c r="C62" s="2">
-        <v>32006352</v>
+        <v>32044608</v>
       </c>
       <c r="D62" s="2">
-        <v>268395969</v>
+        <v>268396049</v>
       </c>
       <c r="E62" s="2">
         <v>11927372</v>
@@ -4250,13 +4252,13 @@
         <v>10142417</v>
       </c>
       <c r="J62" s="2">
-        <v>8216956</v>
+        <v>8216960</v>
       </c>
       <c r="K62" s="2">
         <v>18987000975</v>
       </c>
       <c r="L62" s="2">
-        <v>12258</v>
+        <v>12262</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>17</v>
@@ -4279,13 +4281,13 @@
         <v>20349059</v>
       </c>
       <c r="C63" s="2">
-        <v>30693846</v>
+        <v>30580250</v>
       </c>
       <c r="D63" s="2">
-        <v>50877768</v>
+        <v>51303878</v>
       </c>
       <c r="E63" s="2">
-        <v>1683111</v>
+        <v>1704570</v>
       </c>
       <c r="F63" s="2">
         <v>95384</v>
@@ -4297,16 +4299,16 @@
         <v>3563</v>
       </c>
       <c r="I63" s="2">
-        <v>1476429</v>
+        <v>1487038</v>
       </c>
       <c r="J63" s="2">
-        <v>1799719</v>
+        <v>1815720</v>
       </c>
       <c r="K63" s="2">
-        <v>15776538128</v>
+        <v>15856538128</v>
       </c>
       <c r="L63" s="2">
-        <v>9893</v>
+        <v>9896</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>17</v>
@@ -4400,7 +4402,7 @@
         <v>8784031323</v>
       </c>
       <c r="L65" s="2">
-        <v>14909</v>
+        <v>14910</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>17</v>
@@ -4450,7 +4452,7 @@
         <v>36149578740</v>
       </c>
       <c r="L66" s="2">
-        <v>10833</v>
+        <v>10835</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>17</v>
@@ -4473,7 +4475,7 @@
         <v>58481229</v>
       </c>
       <c r="C67" s="2">
-        <v>28854682</v>
+        <v>28881586</v>
       </c>
       <c r="D67" s="2">
         <v>41409141</v>
@@ -4497,10 +4499,10 @@
         <v>1542356</v>
       </c>
       <c r="K67" s="2">
-        <v>17905094409</v>
+        <v>18630425320</v>
       </c>
       <c r="L67" s="2">
-        <v>5765</v>
+        <v>5777</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>17</v>
@@ -4523,7 +4525,7 @@
         <v>30958849</v>
       </c>
       <c r="C68" s="2">
-        <v>28460795</v>
+        <v>28467595</v>
       </c>
       <c r="D68" s="2">
         <v>109688419</v>
@@ -4550,7 +4552,7 @@
         <v>33290298814</v>
       </c>
       <c r="L68" s="2">
-        <v>14394</v>
+        <v>14396</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>17</v>
@@ -4570,49 +4572,49 @@
         <v>88</v>
       </c>
       <c r="B69" s="2">
-        <v>45155277</v>
+        <v>122958650</v>
       </c>
       <c r="C69" s="2">
-        <v>28393938</v>
+        <v>28336615</v>
       </c>
       <c r="D69" s="2">
-        <v>90643685</v>
+        <v>42008430</v>
       </c>
       <c r="E69" s="2">
-        <v>3617307</v>
+        <v>5398808</v>
       </c>
       <c r="F69" s="2">
-        <v>1842117</v>
+        <v>127280</v>
       </c>
       <c r="G69" s="2">
-        <v>4100705</v>
+        <v>134407</v>
       </c>
       <c r="H69" s="2">
-        <v>1909253</v>
+        <v>15960</v>
       </c>
       <c r="I69" s="2">
-        <v>3504096</v>
+        <v>1139362</v>
       </c>
       <c r="J69" s="2">
-        <v>1969794</v>
+        <v>1512835</v>
       </c>
       <c r="K69" s="2">
-        <v>7180860367</v>
+        <v>8135404855</v>
       </c>
       <c r="L69" s="2">
-        <v>8059</v>
+        <v>6691</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N69" s="2">
-        <v>478004</v>
+        <v>801216</v>
       </c>
       <c r="O69" s="2">
-        <v>345184</v>
+        <v>1389763</v>
       </c>
       <c r="P69" s="2">
-        <v>433218</v>
+        <v>4854957</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -4620,49 +4622,49 @@
         <v>89</v>
       </c>
       <c r="B70" s="2">
-        <v>122958650</v>
+        <v>45155277</v>
       </c>
       <c r="C70" s="2">
-        <v>28336615</v>
+        <v>28325146</v>
       </c>
       <c r="D70" s="2">
-        <v>42008430</v>
+        <v>90887875</v>
       </c>
       <c r="E70" s="2">
-        <v>5398808</v>
+        <v>3630320</v>
       </c>
       <c r="F70" s="2">
-        <v>127280</v>
+        <v>1842117</v>
       </c>
       <c r="G70" s="2">
-        <v>134407</v>
+        <v>4100705</v>
       </c>
       <c r="H70" s="2">
-        <v>15960</v>
+        <v>1909253</v>
       </c>
       <c r="I70" s="2">
-        <v>1139362</v>
+        <v>3510901</v>
       </c>
       <c r="J70" s="2">
-        <v>1512835</v>
+        <v>1978601</v>
       </c>
       <c r="K70" s="2">
-        <v>8135404855</v>
+        <v>7180860367</v>
       </c>
       <c r="L70" s="2">
-        <v>6691</v>
+        <v>8060</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N70" s="2">
-        <v>801216</v>
+        <v>478004</v>
       </c>
       <c r="O70" s="2">
-        <v>1389763</v>
+        <v>345184</v>
       </c>
       <c r="P70" s="2">
-        <v>4854957</v>
+        <v>433218</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -4673,7 +4675,7 @@
         <v>111292103</v>
       </c>
       <c r="C71" s="2">
-        <v>27716664</v>
+        <v>27749264</v>
       </c>
       <c r="D71" s="2">
         <v>20338158</v>
@@ -4697,10 +4699,10 @@
         <v>610415</v>
       </c>
       <c r="K71" s="2">
-        <v>3506677000</v>
+        <v>3606677000</v>
       </c>
       <c r="L71" s="2">
-        <v>9832</v>
+        <v>9945</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>17</v>
@@ -4959,13 +4961,13 @@
         <v>1482388</v>
       </c>
       <c r="C77" s="2">
-        <v>26111212</v>
+        <v>26287368</v>
       </c>
       <c r="D77" s="2">
-        <v>185594373</v>
+        <v>186429473</v>
       </c>
       <c r="E77" s="2">
-        <v>7927953</v>
+        <v>7963839</v>
       </c>
       <c r="F77" s="2">
         <v>139939</v>
@@ -4977,16 +4979,16 @@
         <v>180285</v>
       </c>
       <c r="I77" s="2">
-        <v>5088816</v>
+        <v>5117282</v>
       </c>
       <c r="J77" s="2">
-        <v>6693684</v>
+        <v>6721206</v>
       </c>
       <c r="K77" s="2">
         <v>32818491383</v>
       </c>
       <c r="L77" s="2">
-        <v>14890</v>
+        <v>14895</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>17</v>
@@ -5009,7 +5011,7 @@
         <v>29240760</v>
       </c>
       <c r="C78" s="2">
-        <v>25696048</v>
+        <v>25702848</v>
       </c>
       <c r="D78" s="2">
         <v>132913701</v>
@@ -5036,7 +5038,7 @@
         <v>26584222785</v>
       </c>
       <c r="L78" s="2">
-        <v>13758</v>
+        <v>13762</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>17</v>
@@ -5086,7 +5088,7 @@
         <v>13256058423</v>
       </c>
       <c r="L79" s="2">
-        <v>12466</v>
+        <v>12469</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>17</v>
@@ -5274,7 +5276,7 @@
         <v>12458110223</v>
       </c>
       <c r="L83" s="2">
-        <v>9345</v>
+        <v>9349</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>17</v>
@@ -5345,7 +5347,7 @@
         <v>102689344</v>
       </c>
       <c r="C85" s="2">
-        <v>24819118</v>
+        <v>24832718</v>
       </c>
       <c r="D85" s="2">
         <v>45560696</v>
@@ -5372,7 +5374,7 @@
         <v>22568497910</v>
       </c>
       <c r="L85" s="2">
-        <v>5938</v>
+        <v>5941</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>17</v>
@@ -5395,7 +5397,7 @@
         <v>135874891</v>
       </c>
       <c r="C86" s="2">
-        <v>24095590</v>
+        <v>24448782</v>
       </c>
       <c r="D86" s="2">
         <v>33010031</v>
@@ -5422,7 +5424,7 @@
         <v>13574025187</v>
       </c>
       <c r="L86" s="2">
-        <v>31529</v>
+        <v>31530</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>17</v>
@@ -5472,7 +5474,7 @@
         <v>21782747262</v>
       </c>
       <c r="L87" s="2">
-        <v>6263</v>
+        <v>6266</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>17</v>
@@ -5495,7 +5497,7 @@
         <v>145862727</v>
       </c>
       <c r="C88" s="2">
-        <v>24030790</v>
+        <v>24050390</v>
       </c>
       <c r="D88" s="2">
         <v>7250051</v>
@@ -5522,7 +5524,7 @@
         <v>16615486265</v>
       </c>
       <c r="L88" s="2">
-        <v>4561</v>
+        <v>4564</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>17</v>
@@ -5542,49 +5544,47 @@
         <v>110</v>
       </c>
       <c r="B89" s="2">
-        <v>102573628</v>
+        <v>7967421</v>
       </c>
       <c r="C89" s="2">
-        <v>23668336</v>
+        <v>23765314</v>
       </c>
       <c r="D89" s="2">
-        <v>41986712</v>
+        <v>1426388</v>
       </c>
       <c r="E89" s="2">
-        <v>4218435</v>
+        <v>95442</v>
       </c>
       <c r="F89" s="2">
-        <v>37171</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2">
-        <v>1733</v>
+        <v>6</v>
       </c>
       <c r="H89" s="2">
-        <v>938</v>
+        <v>1</v>
       </c>
       <c r="I89" s="2">
-        <v>931580</v>
+        <v>43167</v>
       </c>
       <c r="J89" s="2">
-        <v>1632813</v>
+        <v>49735</v>
       </c>
       <c r="K89" s="2">
-        <v>19134301110</v>
+        <v>1411488412</v>
       </c>
       <c r="L89" s="2">
-        <v>6124</v>
+        <v>4223</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N89" s="2">
-        <v>2135137</v>
-      </c>
-      <c r="O89" s="2">
-        <v>2210189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" s="2">
-        <v>2648693</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -5592,47 +5592,49 @@
         <v>111</v>
       </c>
       <c r="B90" s="2">
-        <v>7967421</v>
+        <v>102573628</v>
       </c>
       <c r="C90" s="2">
-        <v>23765314</v>
+        <v>23668336</v>
       </c>
       <c r="D90" s="2">
-        <v>1426388</v>
+        <v>41986712</v>
       </c>
       <c r="E90" s="2">
-        <v>95442</v>
+        <v>4218435</v>
       </c>
       <c r="F90" s="2">
-        <v>10</v>
+        <v>37171</v>
       </c>
       <c r="G90" s="2">
-        <v>6</v>
+        <v>1733</v>
       </c>
       <c r="H90" s="2">
-        <v>1</v>
+        <v>938</v>
       </c>
       <c r="I90" s="2">
-        <v>43167</v>
+        <v>931580</v>
       </c>
       <c r="J90" s="2">
-        <v>49735</v>
+        <v>1632813</v>
       </c>
       <c r="K90" s="2">
-        <v>1411488412</v>
+        <v>19134301110</v>
       </c>
       <c r="L90" s="2">
-        <v>4223</v>
+        <v>6126</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N90" s="2">
-        <v>0</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>2135137</v>
+      </c>
+      <c r="O90" s="2">
+        <v>2210189</v>
+      </c>
       <c r="P90" s="2">
-        <v>4306</v>
+        <v>2648693</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
@@ -5687,7 +5689,7 @@
         <v>45436797</v>
       </c>
       <c r="C92" s="2">
-        <v>23065818</v>
+        <v>23068640</v>
       </c>
       <c r="D92" s="2">
         <v>8566163</v>
@@ -5729,34 +5731,34 @@
         <v>156065332</v>
       </c>
       <c r="C93" s="2">
-        <v>23006782</v>
+        <v>22784814</v>
       </c>
       <c r="D93" s="2">
-        <v>29755644</v>
+        <v>30601645</v>
       </c>
       <c r="E93" s="2">
-        <v>1071795</v>
+        <v>1147396</v>
       </c>
       <c r="F93" s="2">
-        <v>461941</v>
+        <v>462208</v>
       </c>
       <c r="G93" s="2">
-        <v>1668762</v>
+        <v>1668766</v>
       </c>
       <c r="H93" s="2">
         <v>282043</v>
       </c>
       <c r="I93" s="2">
-        <v>1100612</v>
+        <v>1124090</v>
       </c>
       <c r="J93" s="2">
-        <v>709572</v>
+        <v>740130</v>
       </c>
       <c r="K93" s="2">
         <v>1058641952</v>
       </c>
       <c r="L93" s="2">
-        <v>4011</v>
+        <v>4069</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>17</v>
@@ -5779,10 +5781,10 @@
         <v>75597392</v>
       </c>
       <c r="C94" s="2">
-        <v>22607568</v>
+        <v>22431989</v>
       </c>
       <c r="D94" s="2">
-        <v>3157255</v>
+        <v>3160675</v>
       </c>
       <c r="E94" s="2">
         <v>109621</v>
@@ -5800,16 +5802,16 @@
         <v>59770</v>
       </c>
       <c r="J94" s="2">
-        <v>80580</v>
+        <v>80751</v>
       </c>
       <c r="K94" s="2">
         <v>1627282716</v>
       </c>
       <c r="L94" s="2">
-        <v>6846</v>
+        <v>6851</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -5817,7 +5819,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2">
         <v>88149205</v>
@@ -5853,7 +5855,7 @@
         <v>2492</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N95" s="2">
         <v>1084917</v>
@@ -5867,7 +5869,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2">
         <v>115316674</v>
@@ -5917,13 +5919,13 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2">
         <v>45422391</v>
       </c>
       <c r="C97" s="2">
-        <v>21189088</v>
+        <v>21215463</v>
       </c>
       <c r="D97" s="2">
         <v>7831044</v>
@@ -5953,7 +5955,7 @@
         <v>2817</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N97" s="2">
         <v>0</v>
@@ -5965,7 +5967,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2">
         <v>27032799</v>
@@ -6007,7 +6009,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2">
         <v>6186291</v>
@@ -6053,7 +6055,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2">
         <v>59510152</v>
@@ -6103,13 +6105,13 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2">
         <v>106774288</v>
       </c>
       <c r="C101" s="2">
-        <v>20793652</v>
+        <v>20808452</v>
       </c>
       <c r="D101" s="2">
         <v>34321188</v>
@@ -6139,7 +6141,7 @@
         <v>3735</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N101" s="2">
         <v>754022</v>
@@ -6153,19 +6155,19 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2">
         <v>174761986</v>
       </c>
       <c r="C102" s="2">
-        <v>20578157</v>
+        <v>20475088</v>
       </c>
       <c r="D102" s="2">
-        <v>3097323</v>
+        <v>3949743</v>
       </c>
       <c r="E102" s="2">
-        <v>596536</v>
+        <v>620702</v>
       </c>
       <c r="F102" s="2">
         <v>235036</v>
@@ -6177,16 +6179,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <v>207821</v>
+        <v>234903</v>
       </c>
       <c r="J102" s="2">
-        <v>46946</v>
+        <v>76026</v>
       </c>
       <c r="K102" s="2">
         <v>522615105</v>
       </c>
       <c r="L102" s="2">
-        <v>32006</v>
+        <v>32010</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>17</v>
@@ -6197,7 +6199,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2">
         <v>80915456</v>
@@ -6247,19 +6249,19 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2">
         <v>138480479</v>
       </c>
       <c r="C104" s="2">
-        <v>20292954</v>
+        <v>20274550</v>
       </c>
       <c r="D104" s="2">
-        <v>6463913</v>
+        <v>6803113</v>
       </c>
       <c r="E104" s="2">
-        <v>571084</v>
+        <v>573402</v>
       </c>
       <c r="F104" s="2">
         <v>16</v>
@@ -6271,16 +6273,16 @@
         <v>1099</v>
       </c>
       <c r="I104" s="2">
-        <v>220223</v>
+        <v>233193</v>
       </c>
       <c r="J104" s="2">
-        <v>212738</v>
+        <v>223213</v>
       </c>
       <c r="K104" s="2">
         <v>7148110350</v>
       </c>
       <c r="L104" s="2">
-        <v>32706</v>
+        <v>2708</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>17</v>
@@ -6297,7 +6299,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2">
         <v>111380674</v>
@@ -6330,7 +6332,7 @@
         <v>7862409176</v>
       </c>
       <c r="L105" s="2">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>17</v>
@@ -6347,7 +6349,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2">
         <v>128158872</v>
@@ -6391,19 +6393,19 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2">
         <v>82063769</v>
       </c>
       <c r="C107" s="2">
-        <v>19763544</v>
+        <v>19896651</v>
       </c>
       <c r="D107" s="2">
-        <v>40515210</v>
+        <v>40698610</v>
       </c>
       <c r="E107" s="2">
-        <v>2034693</v>
+        <v>2044124</v>
       </c>
       <c r="F107" s="2">
         <v>11003</v>
@@ -6415,16 +6417,16 @@
         <v>1264</v>
       </c>
       <c r="I107" s="2">
-        <v>948405</v>
+        <v>952983</v>
       </c>
       <c r="J107" s="2">
-        <v>1550571</v>
+        <v>1557452</v>
       </c>
       <c r="K107" s="2">
-        <v>18415387389</v>
+        <v>18563532304</v>
       </c>
       <c r="L107" s="2">
-        <v>6971</v>
+        <v>6988</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>17</v>
@@ -6441,7 +6443,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2">
         <v>75908263</v>
@@ -6491,19 +6493,19 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2">
         <v>111381676</v>
       </c>
       <c r="C109" s="2">
-        <v>19293715</v>
+        <v>19273979</v>
       </c>
       <c r="D109" s="2">
-        <v>11152511</v>
+        <v>11516201</v>
       </c>
       <c r="E109" s="2">
-        <v>1996960</v>
+        <v>1999447</v>
       </c>
       <c r="F109" s="2">
         <v>21897</v>
@@ -6515,16 +6517,16 @@
         <v>2466</v>
       </c>
       <c r="I109" s="2">
-        <v>400711</v>
+        <v>414630</v>
       </c>
       <c r="J109" s="2">
-        <v>356495</v>
+        <v>367720</v>
       </c>
       <c r="K109" s="2">
         <v>14071995232</v>
       </c>
       <c r="L109" s="2">
-        <v>3850</v>
+        <v>3954</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>17</v>
@@ -6541,7 +6543,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="2">
         <v>90737516</v>
@@ -6591,7 +6593,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2">
         <v>165660039</v>
@@ -6639,19 +6641,19 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2">
         <v>62819682</v>
       </c>
       <c r="C112" s="2">
-        <v>19052165</v>
+        <v>19009033</v>
       </c>
       <c r="D112" s="2">
-        <v>16832518</v>
+        <v>17043788</v>
       </c>
       <c r="E112" s="2">
-        <v>725441</v>
+        <v>736224</v>
       </c>
       <c r="F112" s="2">
         <v>4301</v>
@@ -6663,16 +6665,16 @@
         <v>26</v>
       </c>
       <c r="I112" s="2">
-        <v>416850</v>
+        <v>422099</v>
       </c>
       <c r="J112" s="2">
-        <v>633049</v>
+        <v>640988</v>
       </c>
       <c r="K112" s="2">
         <v>27045479815</v>
       </c>
       <c r="L112" s="2">
-        <v>4397</v>
+        <v>4418</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>17</v>
@@ -6689,13 +6691,13 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2">
         <v>133757841</v>
       </c>
       <c r="C113" s="2">
-        <v>18650160</v>
+        <v>18653560</v>
       </c>
       <c r="D113" s="2">
         <v>8262945</v>
@@ -6722,7 +6724,7 @@
         <v>13897918476</v>
       </c>
       <c r="L113" s="2">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>17</v>
@@ -6739,13 +6741,13 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B114" s="2">
         <v>89011324</v>
       </c>
       <c r="C114" s="2">
-        <v>18623737</v>
+        <v>18628537</v>
       </c>
       <c r="D114" s="2">
         <v>3746052</v>
@@ -6772,7 +6774,7 @@
         <v>81346858403</v>
       </c>
       <c r="L114" s="2">
-        <v>7676</v>
+        <v>7677</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>79</v>
@@ -6787,7 +6789,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B115" s="2">
         <v>106280664</v>
@@ -6831,7 +6833,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116" s="2">
         <v>138260227</v>
@@ -6877,13 +6879,13 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2">
         <v>89407722</v>
       </c>
       <c r="C117" s="2">
-        <v>18523095</v>
+        <v>18524695</v>
       </c>
       <c r="D117" s="2">
         <v>2854224</v>
@@ -6910,7 +6912,7 @@
         <v>21400920567</v>
       </c>
       <c r="L117" s="2">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>79</v>
@@ -6925,7 +6927,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B118" s="2">
         <v>22650649</v>
@@ -6969,13 +6971,13 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2">
         <v>157599938</v>
       </c>
       <c r="C119" s="2">
-        <v>18326417</v>
+        <v>19015269</v>
       </c>
       <c r="D119" s="2">
         <v>1356031</v>
@@ -7000,7 +7002,7 @@
         <v>6212149626</v>
       </c>
       <c r="L119" s="2">
-        <v>327198</v>
+        <v>2722</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>17</v>
@@ -7017,19 +7019,19 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2">
         <v>83226771</v>
       </c>
       <c r="C120" s="2">
-        <v>18068203</v>
+        <v>18236682</v>
       </c>
       <c r="D120" s="2">
-        <v>9863422</v>
+        <v>10061932</v>
       </c>
       <c r="E120" s="2">
-        <v>812506</v>
+        <v>822658</v>
       </c>
       <c r="F120" s="2">
         <v>912</v>
@@ -7041,16 +7043,16 @@
         <v>257</v>
       </c>
       <c r="I120" s="2">
-        <v>316378</v>
+        <v>321323</v>
       </c>
       <c r="J120" s="2">
-        <v>334860</v>
+        <v>342313</v>
       </c>
       <c r="K120" s="2">
-        <v>15561557449</v>
+        <v>15657568456</v>
       </c>
       <c r="L120" s="2">
-        <v>2837</v>
+        <v>2861</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>17</v>
@@ -7067,7 +7069,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2">
         <v>152874510</v>
@@ -7117,13 +7119,13 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2">
         <v>88464477</v>
       </c>
       <c r="C122" s="2">
-        <v>18068605</v>
+        <v>18075005</v>
       </c>
       <c r="D122" s="2">
         <v>3396656</v>
@@ -7150,7 +7152,7 @@
         <v>19706844534</v>
       </c>
       <c r="L122" s="2">
-        <v>6865</v>
+        <v>6866</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>79</v>
@@ -7161,13 +7163,13 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2">
         <v>89355469</v>
       </c>
       <c r="C123" s="2">
-        <v>17963111</v>
+        <v>17964711</v>
       </c>
       <c r="D123" s="2">
         <v>2978751</v>
@@ -7194,7 +7196,7 @@
         <v>24957521265</v>
       </c>
       <c r="L123" s="2">
-        <v>6362</v>
+        <v>6363</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>79</v>
@@ -7209,13 +7211,13 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2">
         <v>88478722</v>
       </c>
       <c r="C124" s="2">
-        <v>17884859</v>
+        <v>17891259</v>
       </c>
       <c r="D124" s="2">
         <v>2071941</v>
@@ -7240,7 +7242,7 @@
         <v>19911653616</v>
       </c>
       <c r="L124" s="2">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>79</v>
@@ -7251,13 +7253,13 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2">
         <v>90769109</v>
       </c>
       <c r="C125" s="2">
-        <v>17867834</v>
+        <v>17869434</v>
       </c>
       <c r="D125" s="2">
         <v>2627066</v>
@@ -7284,7 +7286,7 @@
         <v>21735112732</v>
       </c>
       <c r="L125" s="2">
-        <v>8765</v>
+        <v>8766</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>79</v>
@@ -7299,13 +7301,13 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B126" s="2">
         <v>86428939</v>
       </c>
       <c r="C126" s="2">
-        <v>17823788</v>
+        <v>17828588</v>
       </c>
       <c r="D126" s="2">
         <v>3195770</v>
@@ -7332,7 +7334,7 @@
         <v>43624470094</v>
       </c>
       <c r="L126" s="2">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>79</v>
@@ -7349,7 +7351,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B127" s="2">
         <v>152870519</v>
@@ -7395,16 +7397,16 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2">
         <v>52156110</v>
       </c>
       <c r="C128" s="2">
-        <v>17306107</v>
+        <v>18274595</v>
       </c>
       <c r="D128" s="2">
-        <v>5224371</v>
+        <v>5294911</v>
       </c>
       <c r="E128" s="2">
         <v>2022556</v>
@@ -7422,13 +7424,13 @@
         <v>185626</v>
       </c>
       <c r="J128" s="2">
-        <v>160987</v>
+        <v>164514</v>
       </c>
       <c r="K128" s="2">
-        <v>16699170066</v>
+        <v>16727234226</v>
       </c>
       <c r="L128" s="2">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="M128" s="2" t="s">
         <v>17</v>
@@ -7445,13 +7447,13 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B129" s="2">
         <v>91649416</v>
       </c>
       <c r="C129" s="2">
-        <v>17251622</v>
+        <v>17253222</v>
       </c>
       <c r="D129" s="2">
         <v>1922015</v>
@@ -7478,7 +7480,7 @@
         <v>20539244403</v>
       </c>
       <c r="L129" s="2">
-        <v>4685</v>
+        <v>46386</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>79</v>
@@ -7489,13 +7491,13 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B130" s="2">
         <v>145876288</v>
       </c>
       <c r="C130" s="2">
-        <v>17165885</v>
+        <v>17191485</v>
       </c>
       <c r="D130" s="2">
         <v>4906994</v>
@@ -7525,7 +7527,7 @@
         <v>645</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -7533,13 +7535,13 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2">
         <v>132853690</v>
       </c>
       <c r="C131" s="2">
-        <v>17137801</v>
+        <v>17163801</v>
       </c>
       <c r="D131" s="2">
         <v>1658723</v>
@@ -7566,10 +7568,10 @@
         <v>8129091544</v>
       </c>
       <c r="L131" s="2">
-        <v>21</v>
+        <v>823</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -7681,7 +7683,7 @@
         <v>91646823</v>
       </c>
       <c r="C134" s="2">
-        <v>16847293</v>
+        <v>16853693</v>
       </c>
       <c r="D134" s="2">
         <v>1637379</v>
@@ -7708,7 +7710,7 @@
         <v>19843105921</v>
       </c>
       <c r="L134" s="2">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="M134" s="2" t="s">
         <v>79</v>
@@ -7767,7 +7769,7 @@
         <v>88480351</v>
       </c>
       <c r="C136" s="2">
-        <v>16412462</v>
+        <v>16418862</v>
       </c>
       <c r="D136" s="2">
         <v>2874211</v>
@@ -7794,7 +7796,7 @@
         <v>19494548521</v>
       </c>
       <c r="L136" s="2">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="M136" s="2" t="s">
         <v>79</v>
@@ -7999,7 +8001,7 @@
         <v>84593145</v>
       </c>
       <c r="C141" s="2">
-        <v>15811087</v>
+        <v>15815887</v>
       </c>
       <c r="D141" s="2">
         <v>490449</v>
@@ -8026,7 +8028,7 @@
         <v>21603424099</v>
       </c>
       <c r="L141" s="2">
-        <v>3374</v>
+        <v>30375</v>
       </c>
       <c r="M141" s="2" t="s">
         <v>79</v>
@@ -8043,7 +8045,7 @@
         <v>83580202</v>
       </c>
       <c r="C142" s="2">
-        <v>15796184</v>
+        <v>15802584</v>
       </c>
       <c r="D142" s="2">
         <v>2172572</v>
@@ -8070,7 +8072,7 @@
         <v>23656171432</v>
       </c>
       <c r="L142" s="2">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="M142" s="2" t="s">
         <v>79</v>
@@ -8093,7 +8095,7 @@
         <v>129353741</v>
       </c>
       <c r="C143" s="2">
-        <v>15681845</v>
+        <v>15686645</v>
       </c>
       <c r="D143" s="2">
         <v>541742</v>
@@ -8591,10 +8593,10 @@
         <v>0</v>
       </c>
       <c r="K153" s="2">
-        <v>1908123707</v>
+        <v>2276123705</v>
       </c>
       <c r="L153" s="2">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="M153" s="2" t="s">
         <v>17</v>
@@ -8707,7 +8709,7 @@
         <v>184098057</v>
       </c>
       <c r="C156" s="2">
-        <v>13473014</v>
+        <v>13498614</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2">
@@ -8726,7 +8728,7 @@
         <v>725698258</v>
       </c>
       <c r="L156" s="2">
-        <v>2044</v>
+        <v>2063</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>17</v>
@@ -8767,10 +8769,10 @@
         <v>14025</v>
       </c>
       <c r="K157" s="2">
-        <v>9716642334</v>
+        <v>10376943972</v>
       </c>
       <c r="L157" s="2">
-        <v>32901</v>
+        <v>2904</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>17</v>
@@ -9072,7 +9074,7 @@
         <v>521791870</v>
       </c>
       <c r="L164" s="2">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>100</v>
@@ -9395,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="K172" s="2">
-        <v>1378773699</v>
+        <v>1664313478</v>
       </c>
       <c r="L172" s="2">
         <v>609</v>
@@ -9611,7 +9613,7 @@
         <v>140618805</v>
       </c>
       <c r="C178" s="2">
-        <v>10266408</v>
+        <v>10272808</v>
       </c>
       <c r="D178" s="2">
         <v>242170</v>
@@ -9634,7 +9636,7 @@
         <v>13666899589</v>
       </c>
       <c r="L178" s="2">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>79</v>
@@ -9651,7 +9653,7 @@
         <v>140697952</v>
       </c>
       <c r="C179" s="2">
-        <v>9991341</v>
+        <v>9996141</v>
       </c>
       <c r="D179" s="2">
         <v>22341</v>
@@ -9676,7 +9678,7 @@
         <v>12794438256</v>
       </c>
       <c r="L179" s="2">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>79</v>
@@ -9693,7 +9695,7 @@
         <v>161998715</v>
       </c>
       <c r="C180" s="2">
-        <v>9922183</v>
+        <v>9928583</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2">
@@ -9712,7 +9714,7 @@
         <v>8906646688</v>
       </c>
       <c r="L180" s="2">
-        <v>72</v>
+        <v>879</v>
       </c>
       <c r="M180" s="2" t="s">
         <v>79</v>
@@ -9729,7 +9731,7 @@
         <v>88450074</v>
       </c>
       <c r="C181" s="2">
-        <v>9886153</v>
+        <v>9892553</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2">
@@ -9748,7 +9750,7 @@
         <v>4160309366</v>
       </c>
       <c r="L181" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M181" s="2" t="s">
         <v>79</v>
@@ -9807,7 +9809,7 @@
         <v>157315131</v>
       </c>
       <c r="C183" s="2">
-        <v>9414257</v>
+        <v>9420657</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2">
@@ -9826,7 +9828,7 @@
         <v>10938158064</v>
       </c>
       <c r="L183" s="2">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="M183" s="2" t="s">
         <v>79</v>
@@ -9921,7 +9923,7 @@
         <v>171152106</v>
       </c>
       <c r="C186" s="2">
-        <v>8872205</v>
+        <v>8882705</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2">
@@ -9940,7 +9942,7 @@
         <v>535264641</v>
       </c>
       <c r="L186" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M186" s="2" t="s">
         <v>79</v>
@@ -9957,7 +9959,7 @@
         <v>171150709</v>
       </c>
       <c r="C187" s="2">
-        <v>8864101</v>
+        <v>8868901</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2">
@@ -9976,7 +9978,7 @@
         <v>480499677</v>
       </c>
       <c r="L187" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M187" s="2" t="s">
         <v>79</v>
@@ -9993,7 +9995,7 @@
         <v>88452327</v>
       </c>
       <c r="C188" s="2">
-        <v>8813451</v>
+        <v>8821451</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2">
@@ -10012,7 +10014,7 @@
         <v>3249553269</v>
       </c>
       <c r="L188" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M188" s="2" t="s">
         <v>79</v>
@@ -10052,7 +10054,7 @@
         <v>464585478</v>
       </c>
       <c r="L189" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M189" s="2" t="s">
         <v>79</v>
@@ -10069,7 +10071,7 @@
         <v>161998216</v>
       </c>
       <c r="C190" s="2">
-        <v>8804230</v>
+        <v>8807430</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2">
@@ -10088,7 +10090,7 @@
         <v>450392805</v>
       </c>
       <c r="L190" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M190" s="2" t="s">
         <v>79</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="K193" s="2">
-        <v>1345542004</v>
+        <v>1581211388</v>
       </c>
       <c r="L193" s="2">
         <v>542</v>
@@ -10311,7 +10313,7 @@
         <v>129794667</v>
       </c>
       <c r="C196" s="2">
-        <v>7630955</v>
+        <v>7630421</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2">
@@ -10327,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="K196" s="2">
-        <v>1436828512</v>
+        <v>1739966948</v>
       </c>
       <c r="L196" s="2">
         <v>525</v>
@@ -10421,7 +10423,7 @@
         <v>425</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -10435,7 +10437,7 @@
         <v>196805171</v>
       </c>
       <c r="C199" s="2">
-        <v>6376008</v>
+        <v>6392589</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2">
@@ -10454,7 +10456,7 @@
         <v>299006377</v>
       </c>
       <c r="L199" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M199" s="2" t="s">
         <v>100</v>
@@ -10584,7 +10586,7 @@
         <v>2866488229</v>
       </c>
       <c r="L202" s="2">
-        <v>13299</v>
+        <v>1301</v>
       </c>
       <c r="M202" s="2" t="s">
         <v>100</v>
@@ -10677,7 +10679,7 @@
         <v>563</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -10777,7 +10779,7 @@
         <v>118806541</v>
       </c>
       <c r="C207" s="2">
-        <v>3667583</v>
+        <v>3688158</v>
       </c>
       <c r="D207" s="2">
         <v>1446546</v>
@@ -10804,7 +10806,7 @@
         <v>152850189</v>
       </c>
       <c r="L207" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="M207" s="2" t="s">
         <v>17</v>
@@ -10899,7 +10901,7 @@
         <v>210</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="N209" s="2">
         <v>0</v>
@@ -11025,7 +11027,7 @@
         <v>183</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -11259,7 +11261,7 @@
         <v>162</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -11270,34 +11272,38 @@
         <v>247</v>
       </c>
       <c r="B219" s="2">
-        <v>134503682</v>
+        <v>45474165</v>
       </c>
       <c r="C219" s="2">
-        <v>2049981</v>
+        <v>2056281</v>
       </c>
       <c r="D219" s="2">
-        <v>44808</v>
+        <v>79665</v>
       </c>
       <c r="E219" s="2">
-        <v>28580</v>
-      </c>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
+        <v>5205</v>
+      </c>
+      <c r="F219" s="2">
+        <v>8277</v>
+      </c>
+      <c r="G219" s="2">
+        <v>51</v>
+      </c>
       <c r="H219" s="2">
-        <v>10617</v>
+        <v>19477</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="2">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K219" s="2">
-        <v>147600000</v>
+        <v>69583</v>
       </c>
       <c r="L219" s="2">
-        <v>1728</v>
+        <v>322</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -11305,41 +11311,37 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B220" s="2">
-        <v>45474165</v>
+        <v>134503682</v>
       </c>
       <c r="C220" s="2">
-        <v>2027038</v>
+        <v>2050531</v>
       </c>
       <c r="D220" s="2">
-        <v>79665</v>
+        <v>44808</v>
       </c>
       <c r="E220" s="2">
-        <v>5205</v>
-      </c>
-      <c r="F220" s="2">
-        <v>8277</v>
-      </c>
-      <c r="G220" s="2">
-        <v>51</v>
-      </c>
+        <v>28580</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
       <c r="H220" s="2">
-        <v>19477</v>
+        <v>10617</v>
       </c>
       <c r="I220" s="2"/>
       <c r="J220" s="2">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K220" s="2">
-        <v>69583</v>
+        <v>147600000</v>
       </c>
       <c r="L220" s="2">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -11637,7 +11639,7 @@
         <v>45473530</v>
       </c>
       <c r="C228" s="2">
-        <v>891470</v>
+        <v>941849</v>
       </c>
       <c r="D228" s="2">
         <v>1764</v>
@@ -11662,10 +11664,10 @@
         <v>0</v>
       </c>
       <c r="L228" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
@@ -11947,7 +11949,7 @@
         <v>34</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -11958,32 +11960,38 @@
         <v>267</v>
       </c>
       <c r="B236" s="2">
-        <v>164638687</v>
+        <v>100192170</v>
       </c>
       <c r="C236" s="2">
-        <v>409357</v>
-      </c>
-      <c r="D236" s="2"/>
+        <v>423698</v>
+      </c>
+      <c r="D236" s="2">
+        <v>4410</v>
+      </c>
       <c r="E236" s="2">
-        <v>0</v>
-      </c>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
+        <v>20316</v>
+      </c>
+      <c r="F236" s="2">
+        <v>2572</v>
+      </c>
+      <c r="G236" s="2">
+        <v>562</v>
+      </c>
       <c r="H236" s="2">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="2">
         <v>0</v>
       </c>
       <c r="K236" s="2">
-        <v>0</v>
+        <v>4345081</v>
       </c>
       <c r="L236" s="2">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
@@ -11994,10 +12002,10 @@
         <v>268</v>
       </c>
       <c r="B237" s="2">
-        <v>197982730</v>
+        <v>164638687</v>
       </c>
       <c r="C237" s="2">
-        <v>399706</v>
+        <v>409357</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2">
@@ -12016,10 +12024,10 @@
         <v>0</v>
       </c>
       <c r="L237" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
@@ -12030,38 +12038,32 @@
         <v>269</v>
       </c>
       <c r="B238" s="2">
-        <v>100192170</v>
+        <v>197982730</v>
       </c>
       <c r="C238" s="2">
-        <v>397910</v>
-      </c>
-      <c r="D238" s="2">
-        <v>4410</v>
-      </c>
+        <v>399706</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" s="2">
-        <v>20316</v>
-      </c>
-      <c r="F238" s="2">
-        <v>2572</v>
-      </c>
-      <c r="G238" s="2">
-        <v>562</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
       <c r="H238" s="2">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="I238" s="2"/>
       <c r="J238" s="2">
         <v>0</v>
       </c>
       <c r="K238" s="2">
-        <v>4345081</v>
+        <v>0</v>
       </c>
       <c r="L238" s="2">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
